--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297266.408518217</v>
+        <v>-1298945.630476116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7310893.19190202</v>
+        <v>7310893.191902023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>250.8875013875138</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8367013447162</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>250.084029796295</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.28406442165243</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.97624508410706</v>
+        <v>65.06123479148984</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.2750153991285</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>136.6335787052408</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>237.8847604025023</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.3915983800868</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.68684337390053</v>
       </c>
       <c r="C12" t="n">
-        <v>40.86215871234896</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,13 +1458,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.2228721174171</v>
+        <v>13.22287211741707</v>
       </c>
       <c r="G12" t="n">
-        <v>3.997056892560228</v>
+        <v>3.9970568925602</v>
       </c>
       <c r="H12" t="n">
-        <v>69.06202315907838</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S12" t="n">
-        <v>11.97275987398881</v>
+        <v>11.97275987398878</v>
       </c>
       <c r="T12" t="n">
-        <v>62.27185212449407</v>
+        <v>62.27185212449405</v>
       </c>
       <c r="U12" t="n">
-        <v>93.99634970009464</v>
+        <v>156.0395678501324</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9542468734585</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>73.92664492751069</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.83635550133758</v>
+        <v>73.83635550133755</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.98563990597052</v>
+        <v>47.98563990597049</v>
       </c>
       <c r="C13" t="n">
-        <v>35.40048082266105</v>
+        <v>35.40048082266102</v>
       </c>
       <c r="D13" t="n">
-        <v>16.76913274224557</v>
+        <v>16.76913274224555</v>
       </c>
       <c r="E13" t="n">
-        <v>14.58762237060239</v>
+        <v>14.58762237060236</v>
       </c>
       <c r="F13" t="n">
-        <v>13.57470774696446</v>
+        <v>13.57470774696444</v>
       </c>
       <c r="G13" t="n">
-        <v>34.88698887124585</v>
+        <v>34.88698887124583</v>
       </c>
       <c r="H13" t="n">
-        <v>19.1991785351209</v>
+        <v>93.07399435648421</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.25284453410715</v>
+        <v>70.25284453410713</v>
       </c>
       <c r="T13" t="n">
-        <v>90.72565279517219</v>
+        <v>90.72565279517217</v>
       </c>
       <c r="U13" t="n">
         <v>154.4040899780925</v>
@@ -1588,13 +1588,13 @@
         <v>120.2913030478612</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>154.6766580606242</v>
       </c>
       <c r="X13" t="n">
-        <v>167.7381309344334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.73831307612801</v>
+        <v>86.73831307612798</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.4265514950408</v>
+        <v>212.6038306717543</v>
       </c>
       <c r="D14" t="n">
-        <v>222.8367013447162</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.0297054657447</v>
+        <v>275.0297054657446</v>
       </c>
       <c r="G14" t="n">
-        <v>20.20963713156266</v>
+        <v>280.6526818299032</v>
       </c>
       <c r="H14" t="n">
-        <v>178.9149114046652</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.28406442165245</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>78.97624508410706</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>119.2750153991285</v>
@@ -1670,10 +1670,10 @@
         <v>217.3946284414462</v>
       </c>
       <c r="X14" t="n">
-        <v>237.8847604025023</v>
+        <v>237.8847604025022</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.3915983800867</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.6868433739005</v>
       </c>
       <c r="C15" t="n">
-        <v>40.86215871234896</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.79874017943411</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I15" t="n">
-        <v>30.41468224034466</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>7.018805009040477</v>
       </c>
       <c r="S15" t="n">
-        <v>11.97275987398881</v>
+        <v>11.97275987398875</v>
       </c>
       <c r="T15" t="n">
-        <v>62.27185212449407</v>
+        <v>62.27185212449402</v>
       </c>
       <c r="U15" t="n">
-        <v>93.99634970009464</v>
+        <v>93.99634970009458</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9542468734584</v>
       </c>
       <c r="W15" t="n">
-        <v>119.8486428849528</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>73.92664492751069</v>
+        <v>104.3413271678559</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.83635550133758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.98563990597052</v>
+        <v>47.98563990597046</v>
       </c>
       <c r="C16" t="n">
-        <v>35.40048082266105</v>
+        <v>35.400480822661</v>
       </c>
       <c r="D16" t="n">
-        <v>16.76913274224557</v>
+        <v>16.76913274224552</v>
       </c>
       <c r="E16" t="n">
-        <v>14.58762237060239</v>
+        <v>14.58762237060233</v>
       </c>
       <c r="F16" t="n">
-        <v>13.57470774696446</v>
+        <v>13.57470774696441</v>
       </c>
       <c r="G16" t="n">
-        <v>34.88698887124585</v>
+        <v>34.8869888712458</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0455188110877</v>
+        <v>19.19917853512084</v>
       </c>
       <c r="I16" t="n">
-        <v>73.87481582136313</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>70.25284453410715</v>
+        <v>70.2528445341071</v>
       </c>
       <c r="T16" t="n">
-        <v>90.72565279517219</v>
+        <v>90.72565279517214</v>
       </c>
       <c r="U16" t="n">
-        <v>154.4040899780925</v>
+        <v>154.4040899780924</v>
       </c>
       <c r="V16" t="n">
         <v>120.2913030478612</v>
@@ -1828,10 +1828,10 @@
         <v>154.6766580606242</v>
       </c>
       <c r="X16" t="n">
-        <v>93.86331511307037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.73831307612801</v>
+        <v>160.6131288974919</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>143.8604562606091</v>
       </c>
       <c r="E17" t="n">
-        <v>171.1077847121879</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>196.0534603816376</v>
@@ -1859,7 +1859,7 @@
         <v>201.6764367457962</v>
       </c>
       <c r="H17" t="n">
-        <v>99.93866632055818</v>
+        <v>99.93866632055817</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>40.29877031502144</v>
+        <v>40.29877031502145</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>116.3006158808888</v>
       </c>
       <c r="W17" t="n">
-        <v>83.61121452603976</v>
+        <v>138.4183833573392</v>
       </c>
       <c r="X17" t="n">
         <v>158.9085153183952</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>69.93464437851432</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>37.74776461340429</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>107.6824089919188</v>
       </c>
       <c r="U18" t="n">
         <v>15.02010461598758</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.6295031199658</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>4.443310181571945</v>
@@ -2050,25 +2050,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0991848100739</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>142.8241337412899</v>
+        <v>11.74940771106513</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2504302540593</v>
+        <v>75.42784489398544</v>
       </c>
       <c r="V19" t="n">
-        <v>41.31505796375416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>75.70041297651716</v>
       </c>
       <c r="X19" t="n">
-        <v>14.88707002896331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.762067992020945</v>
+        <v>213.3319644332056</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>171.1077847121879</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0534603816376</v>
+        <v>24.31661844027801</v>
       </c>
       <c r="G20" t="n">
         <v>201.6764367457962</v>
@@ -2147,7 +2147,7 @@
         <v>158.9085153183952</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.678511354620195</v>
+        <v>175.4153532959797</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>107.6824089919188</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.74776461340429</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>84.95474899450204</v>
+        <v>15.02010461598758</v>
       </c>
       <c r="V21" t="n">
-        <v>21.97800178935142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>40.87239780084576</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7333291472126</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.6295031199658</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.32307534255665</v>
       </c>
       <c r="T22" t="n">
         <v>11.74940771106513</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2504302540593</v>
+        <v>75.42784489398544</v>
       </c>
       <c r="V22" t="n">
         <v>41.31505796375416</v>
       </c>
       <c r="W22" t="n">
-        <v>218.7136964390113</v>
+        <v>75.70041297651716</v>
       </c>
       <c r="X22" t="n">
-        <v>14.88707002896331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.762067992020945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.9112563034068</v>
+        <v>171.9112563034067</v>
       </c>
       <c r="C23" t="n">
         <v>154.4503064109337</v>
@@ -2324,7 +2324,7 @@
         <v>143.8604562606091</v>
       </c>
       <c r="E23" t="n">
-        <v>171.107784712188</v>
+        <v>171.1077847121879</v>
       </c>
       <c r="F23" t="n">
         <v>196.0534603816376</v>
@@ -2333,7 +2333,7 @@
         <v>201.6764367457962</v>
       </c>
       <c r="H23" t="n">
-        <v>99.93866632055821</v>
+        <v>99.93866632055818</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>40.29877031502147</v>
+        <v>40.29877031502145</v>
       </c>
       <c r="V23" t="n">
         <v>116.9296731100611</v>
@@ -2384,7 +2384,7 @@
         <v>158.9085153183952</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.4153532959798</v>
+        <v>175.4153532959797</v>
       </c>
     </row>
     <row r="24">
@@ -2406,10 +2406,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>61.57786056416413</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>221.6671775735363</v>
+        <v>15.02010461598758</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.7333291472126</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>44.36397641717594</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.74940771106516</v>
+        <v>11.74940771106513</v>
       </c>
       <c r="U25" t="n">
-        <v>75.42784489398547</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V25" t="n">
-        <v>41.31505796375419</v>
+        <v>41.31505796375416</v>
       </c>
       <c r="W25" t="n">
-        <v>75.70041297651719</v>
+        <v>75.70041297651716</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>14.88707002896331</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>86.31107458261467</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I26" t="n">
-        <v>23.40940617061008</v>
+        <v>23.4094061706101</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="U26" t="n">
-        <v>172.1451105909882</v>
+        <v>172.1451105909883</v>
       </c>
       <c r="V26" t="n">
-        <v>248.7760133860278</v>
+        <v>248.7760133860279</v>
       </c>
       <c r="W26" t="n">
         <v>270.2647236333059</v>
@@ -2621,7 +2621,7 @@
         <v>290.754855594362</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.2616935719465</v>
+        <v>307.2616935719466</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8557350978302</v>
+        <v>100.8557350978303</v>
       </c>
       <c r="C28" t="n">
-        <v>88.27057601452078</v>
+        <v>88.2705760145208</v>
       </c>
       <c r="D28" t="n">
-        <v>69.63922793410531</v>
+        <v>69.63922793410532</v>
       </c>
       <c r="E28" t="n">
-        <v>67.45771756246212</v>
+        <v>67.45771756246214</v>
       </c>
       <c r="F28" t="n">
-        <v>66.4448029388242</v>
+        <v>66.44480293882421</v>
       </c>
       <c r="G28" t="n">
-        <v>87.75708406310558</v>
+        <v>87.75708406310559</v>
       </c>
       <c r="H28" t="n">
-        <v>72.06927372698064</v>
+        <v>72.06927372698065</v>
       </c>
       <c r="I28" t="n">
-        <v>38.65325803585876</v>
+        <v>38.65325803585877</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76861952194137</v>
+        <v>41.76861952194138</v>
       </c>
       <c r="S28" t="n">
         <v>123.1229397259669</v>
@@ -2770,16 +2770,16 @@
         <v>207.2741851699522</v>
       </c>
       <c r="V28" t="n">
-        <v>173.1613982397209</v>
+        <v>173.161398239721</v>
       </c>
       <c r="W28" t="n">
-        <v>207.5467532524839</v>
+        <v>207.546753252484</v>
       </c>
       <c r="X28" t="n">
         <v>146.7334103049301</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6084082679877</v>
+        <v>139.6084082679878</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.7575965793735</v>
+        <v>303.7575965793736</v>
       </c>
       <c r="C29" t="n">
         <v>286.2966466869005</v>
       </c>
       <c r="D29" t="n">
-        <v>275.7067965365759</v>
+        <v>275.706796536576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.9541249881547</v>
+        <v>302.9541249881548</v>
       </c>
       <c r="F29" t="n">
         <v>327.8998006576044</v>
@@ -2810,7 +2810,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I29" t="n">
-        <v>23.40940617061013</v>
+        <v>23.40940617061011</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.15415961351221</v>
+        <v>66.15415961351222</v>
       </c>
       <c r="T29" t="n">
         <v>131.8463402759668</v>
@@ -2852,7 +2852,7 @@
         <v>248.7760133860279</v>
       </c>
       <c r="W29" t="n">
-        <v>270.2647236333059</v>
+        <v>270.264723633306</v>
       </c>
       <c r="X29" t="n">
         <v>290.754855594362</v>
@@ -2889,7 +2889,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I30" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S30" t="n">
         <v>143.8191001499556</v>
@@ -2950,25 +2950,25 @@
         <v>100.8557350978303</v>
       </c>
       <c r="C31" t="n">
-        <v>88.2705760145208</v>
+        <v>88.27057601452083</v>
       </c>
       <c r="D31" t="n">
-        <v>69.63922793410532</v>
+        <v>69.63922793410535</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45771756246214</v>
+        <v>67.45771756246216</v>
       </c>
       <c r="F31" t="n">
-        <v>66.44480293882421</v>
+        <v>66.44480293882424</v>
       </c>
       <c r="G31" t="n">
-        <v>87.75708406310559</v>
+        <v>87.75708406310562</v>
       </c>
       <c r="H31" t="n">
-        <v>72.06927372698065</v>
+        <v>72.06927372698067</v>
       </c>
       <c r="I31" t="n">
-        <v>38.65325803585878</v>
+        <v>38.65325803585879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76861952194139</v>
+        <v>41.7686195219414</v>
       </c>
       <c r="S31" t="n">
         <v>123.1229397259669</v>
       </c>
       <c r="T31" t="n">
-        <v>143.5957479870319</v>
+        <v>143.595747987032</v>
       </c>
       <c r="U31" t="n">
-        <v>207.2741851699522</v>
+        <v>207.2741851699523</v>
       </c>
       <c r="V31" t="n">
         <v>173.161398239721</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.7575965793735</v>
+        <v>303.7575965793736</v>
       </c>
       <c r="C32" t="n">
-        <v>286.2966466869005</v>
+        <v>286.2966466869006</v>
       </c>
       <c r="D32" t="n">
-        <v>275.7067965365759</v>
+        <v>275.706796536576</v>
       </c>
       <c r="E32" t="n">
-        <v>302.9541249881547</v>
+        <v>302.9541249881548</v>
       </c>
       <c r="F32" t="n">
-        <v>327.8998006576044</v>
+        <v>327.8998006576045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.522777021763</v>
+        <v>333.5227770217631</v>
       </c>
       <c r="H32" t="n">
-        <v>231.785006596525</v>
+        <v>231.7850065965251</v>
       </c>
       <c r="I32" t="n">
-        <v>23.40940617061011</v>
+        <v>23.40940617061017</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.15415961351219</v>
+        <v>66.15415961351226</v>
       </c>
       <c r="T32" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759669</v>
       </c>
       <c r="U32" t="n">
-        <v>172.1451105909882</v>
+        <v>172.1451105909883</v>
       </c>
       <c r="V32" t="n">
-        <v>248.7760133860278</v>
+        <v>248.776013386028</v>
       </c>
       <c r="W32" t="n">
-        <v>270.2647236333059</v>
+        <v>270.2647236333061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.754855594362</v>
+        <v>290.7548555943621</v>
       </c>
       <c r="Y32" t="n">
-        <v>307.2616935719465</v>
+        <v>307.2616935719466</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I33" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S33" t="n">
         <v>143.8191001499556</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8557350978302</v>
+        <v>100.8557350978303</v>
       </c>
       <c r="C34" t="n">
-        <v>88.27057601452078</v>
+        <v>88.27057601452088</v>
       </c>
       <c r="D34" t="n">
-        <v>69.63922793410531</v>
+        <v>69.63922793410541</v>
       </c>
       <c r="E34" t="n">
-        <v>67.45771756246212</v>
+        <v>67.45771756246222</v>
       </c>
       <c r="F34" t="n">
-        <v>66.4448029388242</v>
+        <v>66.4448029388243</v>
       </c>
       <c r="G34" t="n">
-        <v>87.75708406310559</v>
+        <v>87.75708406310569</v>
       </c>
       <c r="H34" t="n">
-        <v>72.06927372698064</v>
+        <v>72.06927372698073</v>
       </c>
       <c r="I34" t="n">
-        <v>38.65325803585876</v>
+        <v>38.65325803585885</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76861952194137</v>
+        <v>41.76861952194146</v>
       </c>
       <c r="S34" t="n">
-        <v>123.1229397259669</v>
+        <v>123.122939725967</v>
       </c>
       <c r="T34" t="n">
-        <v>143.5957479870319</v>
+        <v>143.595747987032</v>
       </c>
       <c r="U34" t="n">
-        <v>207.2741851699522</v>
+        <v>207.2741851699523</v>
       </c>
       <c r="V34" t="n">
-        <v>173.1613982397209</v>
+        <v>173.1613982397211</v>
       </c>
       <c r="W34" t="n">
-        <v>207.5467532524839</v>
+        <v>207.5467532524841</v>
       </c>
       <c r="X34" t="n">
-        <v>146.7334103049301</v>
+        <v>146.7334103049302</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.6084082679877</v>
+        <v>139.6084082679878</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>230.2589964852118</v>
+        <v>230.2589964852119</v>
       </c>
       <c r="C35" t="n">
-        <v>212.7980465927388</v>
+        <v>212.7980465927389</v>
       </c>
       <c r="D35" t="n">
-        <v>202.2081964424142</v>
+        <v>202.2081964424143</v>
       </c>
       <c r="E35" t="n">
-        <v>229.455524893993</v>
+        <v>229.4555248939931</v>
       </c>
       <c r="F35" t="n">
-        <v>254.4012005634427</v>
+        <v>254.4012005634428</v>
       </c>
       <c r="G35" t="n">
-        <v>260.0241769276013</v>
+        <v>260.0241769276014</v>
       </c>
       <c r="H35" t="n">
         <v>158.2864065023633</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.34774018180511</v>
+        <v>58.34774018180516</v>
       </c>
       <c r="U35" t="n">
-        <v>98.64651049682655</v>
+        <v>98.64651049682661</v>
       </c>
       <c r="V35" t="n">
         <v>175.2774132918662</v>
@@ -3329,10 +3329,10 @@
         <v>196.7661235391443</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2562555002003</v>
+        <v>217.2562555002004</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7630934777848</v>
+        <v>233.7630934777849</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I36" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S36" t="n">
         <v>143.8191001499556</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.35713500366856</v>
+        <v>27.35713500366862</v>
       </c>
       <c r="C37" t="n">
-        <v>14.7719759203591</v>
+        <v>14.77197592035915</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.87104964117554</v>
+        <v>14.25848396894396</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.6243396318052</v>
+        <v>49.62433963180526</v>
       </c>
       <c r="T37" t="n">
-        <v>70.09714789287024</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U37" t="n">
-        <v>133.7755850757905</v>
+        <v>156.3472682163229</v>
       </c>
       <c r="V37" t="n">
-        <v>99.66279814555926</v>
+        <v>99.66279814555932</v>
       </c>
       <c r="W37" t="n">
         <v>134.0481531583223</v>
       </c>
       <c r="X37" t="n">
-        <v>73.23481021076842</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10980817382611</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.2589964852118</v>
+        <v>230.2589964852119</v>
       </c>
       <c r="C38" t="n">
-        <v>212.7980465927388</v>
+        <v>212.7980465927389</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2081964424142</v>
+        <v>202.2081964424143</v>
       </c>
       <c r="E38" t="n">
-        <v>229.455524893993</v>
+        <v>229.4555248939931</v>
       </c>
       <c r="F38" t="n">
-        <v>254.4012005634427</v>
+        <v>254.4012005634428</v>
       </c>
       <c r="G38" t="n">
-        <v>260.0241769276013</v>
+        <v>260.0241769276014</v>
       </c>
       <c r="H38" t="n">
         <v>158.2864065023633</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.34774018180511</v>
+        <v>58.34774018180516</v>
       </c>
       <c r="U38" t="n">
-        <v>98.64651049682655</v>
+        <v>98.64651049682662</v>
       </c>
       <c r="V38" t="n">
         <v>175.2774132918662</v>
@@ -3566,10 +3566,10 @@
         <v>196.7661235391443</v>
       </c>
       <c r="X38" t="n">
-        <v>217.2562555002003</v>
+        <v>217.2562555002004</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7630934777848</v>
+        <v>233.7630934777849</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I39" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S39" t="n">
-        <v>143.8191001499544</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T39" t="n">
         <v>194.1181924004609</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.35713500366856</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.7719759203591</v>
+        <v>14.77197592035915</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.2584839689439</v>
+        <v>14.25848396894396</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.57168314053205</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.6243396318052</v>
+        <v>49.62433963180526</v>
       </c>
       <c r="T40" t="n">
-        <v>70.09714789287024</v>
+        <v>70.0971478928703</v>
       </c>
       <c r="U40" t="n">
-        <v>133.7755850757905</v>
+        <v>152.4878960562665</v>
       </c>
       <c r="V40" t="n">
-        <v>99.66279814555926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>134.0481531583223</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>73.23481021076847</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.10980817382605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2589964852118</v>
+        <v>230.2589964852119</v>
       </c>
       <c r="C41" t="n">
-        <v>212.7980465927388</v>
+        <v>212.7980465927389</v>
       </c>
       <c r="D41" t="n">
-        <v>202.2081964424142</v>
+        <v>202.2081964424143</v>
       </c>
       <c r="E41" t="n">
-        <v>229.455524893993</v>
+        <v>229.4555248939931</v>
       </c>
       <c r="F41" t="n">
-        <v>254.4012005634427</v>
+        <v>254.4012005634428</v>
       </c>
       <c r="G41" t="n">
-        <v>260.0241769276013</v>
+        <v>260.0241769276014</v>
       </c>
       <c r="H41" t="n">
         <v>158.2864065023633</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.34774018180511</v>
+        <v>58.34774018180516</v>
       </c>
       <c r="U41" t="n">
-        <v>98.64651049682655</v>
+        <v>98.64651049682662</v>
       </c>
       <c r="V41" t="n">
         <v>175.2774132918662</v>
@@ -3803,10 +3803,10 @@
         <v>196.7661235391443</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2562555002003</v>
+        <v>217.2562555002004</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7630934777848</v>
+        <v>233.7630934777849</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I42" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S42" t="n">
         <v>143.8191001499556</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.67993295790996</v>
+        <v>48.67993295790993</v>
       </c>
       <c r="C43" t="n">
-        <v>14.7719759203591</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.2584839689439</v>
+        <v>14.25848396894396</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.443310181571974</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.6243396318052</v>
+        <v>49.62433963180526</v>
       </c>
       <c r="T43" t="n">
-        <v>70.09714789287024</v>
+        <v>70.0971478928703</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2504302540593</v>
+        <v>133.7755850757906</v>
       </c>
       <c r="V43" t="n">
-        <v>99.66279814555926</v>
+        <v>99.66279814555932</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.23481021076842</v>
+        <v>73.23481021076847</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.10980817382605</v>
+        <v>66.10980817382611</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2589964852118</v>
+        <v>230.2589964852119</v>
       </c>
       <c r="C44" t="n">
-        <v>212.7980465927388</v>
+        <v>212.7980465927389</v>
       </c>
       <c r="D44" t="n">
-        <v>202.2081964424142</v>
+        <v>202.2081964424143</v>
       </c>
       <c r="E44" t="n">
-        <v>229.455524893993</v>
+        <v>229.4555248939931</v>
       </c>
       <c r="F44" t="n">
-        <v>254.4012005634427</v>
+        <v>254.4012005634428</v>
       </c>
       <c r="G44" t="n">
-        <v>260.0241769276013</v>
+        <v>260.0241769276014</v>
       </c>
       <c r="H44" t="n">
         <v>158.2864065023633</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.34774018180511</v>
+        <v>58.34774018180516</v>
       </c>
       <c r="U44" t="n">
-        <v>98.64651049682655</v>
+        <v>98.64651049682661</v>
       </c>
       <c r="V44" t="n">
         <v>175.2774132918662</v>
@@ -4040,10 +4040,10 @@
         <v>196.7661235391443</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2562555002003</v>
+        <v>217.2562555002004</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7630934777848</v>
+        <v>233.7630934777849</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I45" t="n">
-        <v>37.74776461340431</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.018805009040506</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S45" t="n">
         <v>143.8191001499556</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.35713500366856</v>
+        <v>27.35713500366862</v>
       </c>
       <c r="C46" t="n">
-        <v>14.7719759203591</v>
+        <v>14.77197592035915</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7333291472126</v>
+        <v>14.25848396894396</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.0455188110877</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.443310181571974</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>63.8933404307092</v>
+        <v>49.62433963180526</v>
       </c>
       <c r="T46" t="n">
-        <v>222.571993071139</v>
+        <v>70.0971478928703</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7755850757905</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V46" t="n">
-        <v>99.66279814555926</v>
+        <v>99.66279814555932</v>
       </c>
       <c r="W46" t="n">
         <v>134.0481531583223</v>
       </c>
       <c r="X46" t="n">
-        <v>73.23481021076842</v>
+        <v>92.79250953690983</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10980817382611</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>970.7523163758501</v>
+        <v>745.6647392599752</v>
       </c>
       <c r="C11" t="n">
-        <v>970.7523163758501</v>
+        <v>745.6647392599752</v>
       </c>
       <c r="D11" t="n">
-        <v>745.6647392599751</v>
+        <v>745.6647392599752</v>
       </c>
       <c r="E11" t="n">
-        <v>493.0546081526064</v>
+        <v>493.0546081526066</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0546081526064</v>
+        <v>493.0546081526066</v>
       </c>
       <c r="G11" t="n">
         <v>209.5670507486637</v>
@@ -5039,19 +5039,19 @@
         <v>28.84491801667867</v>
       </c>
       <c r="J11" t="n">
-        <v>85.19169484519335</v>
+        <v>85.19169484519352</v>
       </c>
       <c r="K11" t="n">
-        <v>220.3794251620421</v>
+        <v>220.3794251620416</v>
       </c>
       <c r="L11" t="n">
-        <v>424.9935205948648</v>
+        <v>424.9935205948644</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3355641233959</v>
+        <v>684.3355641233957</v>
       </c>
       <c r="N11" t="n">
-        <v>952.4878414288106</v>
+        <v>952.4878414288104</v>
       </c>
       <c r="O11" t="n">
         <v>1192.36117173751</v>
@@ -5066,25 +5066,25 @@
         <v>1442.245900833934</v>
       </c>
       <c r="S11" t="n">
-        <v>1428.827653943375</v>
+        <v>1442.245900833934</v>
       </c>
       <c r="T11" t="n">
-        <v>1349.053669009934</v>
+        <v>1376.527481852631</v>
       </c>
       <c r="U11" t="n">
-        <v>1349.053669009934</v>
+        <v>1256.047668318158</v>
       </c>
       <c r="V11" t="n">
-        <v>1349.053669009934</v>
+        <v>1256.047668318158</v>
       </c>
       <c r="W11" t="n">
-        <v>1211.039953146054</v>
+        <v>1256.047668318158</v>
       </c>
       <c r="X11" t="n">
-        <v>970.7523163758501</v>
+        <v>1256.047668318158</v>
       </c>
       <c r="Y11" t="n">
-        <v>970.7523163758501</v>
+        <v>999.0864578332214</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>465.4451775130871</v>
+        <v>528.8636796513582</v>
       </c>
       <c r="C12" t="n">
-        <v>424.1702697228357</v>
+        <v>354.4106503702312</v>
       </c>
       <c r="D12" t="n">
-        <v>275.2358600615844</v>
+        <v>205.4762407089799</v>
       </c>
       <c r="E12" t="n">
-        <v>115.9984050561289</v>
+        <v>46.2387857035244</v>
       </c>
       <c r="F12" t="n">
-        <v>102.6419685738894</v>
+        <v>32.88234922128493</v>
       </c>
       <c r="G12" t="n">
-        <v>98.60453736928311</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="H12" t="n">
         <v>28.84491801667867</v>
@@ -5124,10 +5124,10 @@
         <v>146.9379176954384</v>
       </c>
       <c r="L12" t="n">
-        <v>503.893778151837</v>
+        <v>435.5801991662923</v>
       </c>
       <c r="M12" t="n">
-        <v>739.4763160249347</v>
+        <v>671.1627370393901</v>
       </c>
       <c r="N12" t="n">
         <v>1028.118597495789</v>
@@ -5142,28 +5142,28 @@
         <v>1442.245900833934</v>
       </c>
       <c r="R12" t="n">
-        <v>1442.245900833934</v>
+        <v>1435.1561988046</v>
       </c>
       <c r="S12" t="n">
-        <v>1430.152203991521</v>
+        <v>1423.062501962187</v>
       </c>
       <c r="T12" t="n">
-        <v>1367.251343259708</v>
+        <v>1360.161641230374</v>
       </c>
       <c r="U12" t="n">
-        <v>1272.305535481835</v>
+        <v>1202.545916129231</v>
       </c>
       <c r="V12" t="n">
-        <v>1037.153427250092</v>
+        <v>1100.571929388364</v>
       </c>
       <c r="W12" t="n">
-        <v>782.9160705218908</v>
+        <v>846.3345726601619</v>
       </c>
       <c r="X12" t="n">
-        <v>708.2426918072335</v>
+        <v>638.4830724546291</v>
       </c>
       <c r="Y12" t="n">
-        <v>633.6605145331552</v>
+        <v>563.9008951805507</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.620787803386</v>
+        <v>239.241813885571</v>
       </c>
       <c r="C13" t="n">
-        <v>128.8627263663546</v>
+        <v>203.4837524485397</v>
       </c>
       <c r="D13" t="n">
-        <v>111.9242084448944</v>
+        <v>186.5452345270795</v>
       </c>
       <c r="E13" t="n">
-        <v>97.18923635337688</v>
+        <v>171.810262435562</v>
       </c>
       <c r="F13" t="n">
-        <v>83.47741034634207</v>
+        <v>158.0984364285272</v>
       </c>
       <c r="G13" t="n">
-        <v>48.23802764811393</v>
+        <v>122.8590537302991</v>
       </c>
       <c r="H13" t="n">
         <v>28.84491801667867</v>
@@ -5233,16 +5233,16 @@
         <v>881.0615810367034</v>
       </c>
       <c r="V13" t="n">
-        <v>759.555214321692</v>
+        <v>759.5552143216921</v>
       </c>
       <c r="W13" t="n">
-        <v>470.1380442847314</v>
+        <v>603.316165775607</v>
       </c>
       <c r="X13" t="n">
-        <v>300.7055887954047</v>
+        <v>375.3266148775897</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0911311427502</v>
+        <v>287.7121572249351</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>972.7414977496454</v>
+        <v>808.9725190887092</v>
       </c>
       <c r="C14" t="n">
-        <v>736.9571023001092</v>
+        <v>594.2211749758256</v>
       </c>
       <c r="D14" t="n">
-        <v>511.8695251842343</v>
+        <v>594.2211749758256</v>
       </c>
       <c r="E14" t="n">
-        <v>511.8695251842343</v>
+        <v>594.2211749758256</v>
       </c>
       <c r="F14" t="n">
-        <v>234.0617418855023</v>
+        <v>316.4133916770939</v>
       </c>
       <c r="G14" t="n">
-        <v>213.6479670051363</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="H14" t="n">
         <v>32.92583427315122</v>
@@ -5279,22 +5279,22 @@
         <v>89.27261110166577</v>
       </c>
       <c r="K14" t="n">
-        <v>424.4252379856695</v>
+        <v>224.4603414185144</v>
       </c>
       <c r="L14" t="n">
-        <v>629.0393334184922</v>
+        <v>429.0744368513371</v>
       </c>
       <c r="M14" t="n">
-        <v>888.3813769470235</v>
+        <v>688.4164803798683</v>
       </c>
       <c r="N14" t="n">
-        <v>1156.533654252438</v>
+        <v>956.5687576852829</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.406984561138</v>
+        <v>1196.442087993983</v>
       </c>
       <c r="P14" t="n">
-        <v>1566.632321455023</v>
+        <v>1366.667424887868</v>
       </c>
       <c r="Q14" t="n">
         <v>1646.291713657561</v>
@@ -5303,25 +5303,25 @@
         <v>1646.291713657561</v>
       </c>
       <c r="S14" t="n">
-        <v>1632.873466767003</v>
+        <v>1646.291713657561</v>
       </c>
       <c r="T14" t="n">
-        <v>1553.099481833562</v>
+        <v>1646.291713657561</v>
       </c>
       <c r="U14" t="n">
-        <v>1432.619668299088</v>
+        <v>1525.811900123088</v>
       </c>
       <c r="V14" t="n">
-        <v>1432.619668299088</v>
+        <v>1525.811900123088</v>
       </c>
       <c r="W14" t="n">
-        <v>1213.02913451985</v>
+        <v>1306.22136634385</v>
       </c>
       <c r="X14" t="n">
-        <v>972.7414977496454</v>
+        <v>1065.933729573646</v>
       </c>
       <c r="Y14" t="n">
-        <v>972.7414977496454</v>
+        <v>808.9725190887092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>795.5794097982564</v>
+        <v>764.857508545383</v>
       </c>
       <c r="C15" t="n">
-        <v>754.3045020080049</v>
+        <v>590.404479264256</v>
       </c>
       <c r="D15" t="n">
-        <v>605.3700923467536</v>
+        <v>441.4700696030047</v>
       </c>
       <c r="E15" t="n">
-        <v>446.1326373412981</v>
+        <v>415.4107360884248</v>
       </c>
       <c r="F15" t="n">
-        <v>299.5980793681831</v>
+        <v>268.8761781153097</v>
       </c>
       <c r="G15" t="n">
-        <v>162.3825266727013</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="H15" t="n">
-        <v>63.64773552602462</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="I15" t="n">
         <v>32.92583427315122</v>
       </c>
       <c r="J15" t="n">
-        <v>47.66774158115636</v>
+        <v>172.4978665681611</v>
       </c>
       <c r="K15" t="n">
-        <v>195.8573192929694</v>
+        <v>275.8489589389157</v>
       </c>
       <c r="L15" t="n">
-        <v>381.1481584575814</v>
+        <v>461.1397981035277</v>
       </c>
       <c r="M15" t="n">
-        <v>616.7306963306792</v>
+        <v>824.70721118917</v>
       </c>
       <c r="N15" t="n">
-        <v>1024.187895460926</v>
+        <v>1232.164410319416</v>
       </c>
       <c r="O15" t="n">
-        <v>1236.365154066568</v>
+        <v>1444.341668925059</v>
       </c>
       <c r="P15" t="n">
-        <v>1387.323043731865</v>
+        <v>1595.299558590356</v>
       </c>
       <c r="Q15" t="n">
         <v>1646.291713657561</v>
@@ -5382,7 +5382,7 @@
         <v>1639.202011628227</v>
       </c>
       <c r="S15" t="n">
-        <v>1627.108314785814</v>
+        <v>1627.108314785815</v>
       </c>
       <c r="T15" t="n">
         <v>1564.207454054002</v>
@@ -5391,16 +5391,16 @@
         <v>1469.261646276129</v>
       </c>
       <c r="V15" t="n">
-        <v>1234.109538044386</v>
+        <v>1367.287659535262</v>
       </c>
       <c r="W15" t="n">
         <v>1113.05030280706</v>
       </c>
       <c r="X15" t="n">
-        <v>1038.376924092403</v>
+        <v>1007.655022839529</v>
       </c>
       <c r="Y15" t="n">
-        <v>963.7947468183244</v>
+        <v>799.8947240745754</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5008516329191</v>
+        <v>168.7017040598582</v>
       </c>
       <c r="C16" t="n">
-        <v>340.7427901958877</v>
+        <v>132.9436426228269</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8042722744275</v>
+        <v>116.0051247013668</v>
       </c>
       <c r="E16" t="n">
-        <v>309.06930018291</v>
+        <v>101.2701526098493</v>
       </c>
       <c r="F16" t="n">
-        <v>295.3574741758752</v>
+        <v>87.5583266028145</v>
       </c>
       <c r="G16" t="n">
-        <v>260.118091477647</v>
+        <v>52.31894390458642</v>
       </c>
       <c r="H16" t="n">
-        <v>107.5468603553362</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="I16" t="n">
         <v>32.92583427315122</v>
@@ -5467,19 +5467,19 @@
         <v>1041.106224543774</v>
       </c>
       <c r="U16" t="n">
-        <v>885.142497293176</v>
+        <v>885.1424972931761</v>
       </c>
       <c r="V16" t="n">
-        <v>763.6361305781646</v>
+        <v>763.6361305781649</v>
       </c>
       <c r="W16" t="n">
-        <v>607.3970820320795</v>
+        <v>607.3970820320799</v>
       </c>
       <c r="X16" t="n">
-        <v>512.5856526249378</v>
+        <v>379.4075311340625</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.9711949722832</v>
+        <v>217.1720473992223</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1009.781501779941</v>
+        <v>836.9453556060146</v>
       </c>
       <c r="C17" t="n">
-        <v>853.7710912638466</v>
+        <v>680.9349450899199</v>
       </c>
       <c r="D17" t="n">
-        <v>708.4574990814132</v>
+        <v>535.6213529074864</v>
       </c>
       <c r="E17" t="n">
-        <v>535.621352907486</v>
+        <v>535.6213529074864</v>
       </c>
       <c r="F17" t="n">
-        <v>337.5875545421954</v>
+        <v>337.587554542196</v>
       </c>
       <c r="G17" t="n">
-        <v>133.8739820716949</v>
+        <v>133.8739820716948</v>
       </c>
       <c r="H17" t="n">
         <v>32.92583427315122</v>
@@ -5513,28 +5513,28 @@
         <v>32.92583427315122</v>
       </c>
       <c r="J17" t="n">
-        <v>89.27261110166577</v>
+        <v>256.6782601220188</v>
       </c>
       <c r="K17" t="n">
-        <v>224.4603414185144</v>
+        <v>391.8659904388674</v>
       </c>
       <c r="L17" t="n">
-        <v>429.0744368513371</v>
+        <v>596.4800858716901</v>
       </c>
       <c r="M17" t="n">
-        <v>688.4164803798683</v>
+        <v>855.8221294002213</v>
       </c>
       <c r="N17" t="n">
-        <v>956.5687576852829</v>
+        <v>1123.974406705636</v>
       </c>
       <c r="O17" t="n">
-        <v>1196.442087993983</v>
+        <v>1363.847737014336</v>
       </c>
       <c r="P17" t="n">
-        <v>1540.645049020292</v>
+        <v>1566.632321455024</v>
       </c>
       <c r="Q17" t="n">
-        <v>1620.304441222829</v>
+        <v>1646.291713657561</v>
       </c>
       <c r="R17" t="n">
         <v>1646.291713657561</v>
@@ -5546,19 +5546,19 @@
         <v>1646.291713657561</v>
       </c>
       <c r="U17" t="n">
-        <v>1605.585885056528</v>
+        <v>1605.58588505653</v>
       </c>
       <c r="V17" t="n">
-        <v>1605.585885056528</v>
+        <v>1488.110515479874</v>
       </c>
       <c r="W17" t="n">
-        <v>1521.130112808004</v>
+        <v>1348.293966634077</v>
       </c>
       <c r="X17" t="n">
-        <v>1360.616460971241</v>
+        <v>1187.780314797314</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.429235419746</v>
+        <v>1010.593089245819</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>770.8553962869471</v>
+        <v>662.0852861941</v>
       </c>
       <c r="C18" t="n">
-        <v>596.4023670058201</v>
+        <v>487.632256912973</v>
       </c>
       <c r="D18" t="n">
-        <v>447.4679573445688</v>
+        <v>338.6978472517218</v>
       </c>
       <c r="E18" t="n">
-        <v>288.2305023391133</v>
+        <v>179.4603922462663</v>
       </c>
       <c r="F18" t="n">
-        <v>141.6959443659983</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="G18" t="n">
-        <v>71.05488943820606</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="H18" t="n">
-        <v>71.05488943820606</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="I18" t="n">
         <v>32.92583427315122</v>
       </c>
       <c r="J18" t="n">
-        <v>47.66774158115636</v>
+        <v>172.4978665681611</v>
       </c>
       <c r="K18" t="n">
-        <v>151.0188339519109</v>
+        <v>275.8489589389157</v>
       </c>
       <c r="L18" t="n">
-        <v>336.309673116523</v>
+        <v>461.1397981035277</v>
       </c>
       <c r="M18" t="n">
-        <v>571.8922109896207</v>
+        <v>696.7223359766256</v>
       </c>
       <c r="N18" t="n">
-        <v>828.1185625582473</v>
+        <v>952.9486875452521</v>
       </c>
       <c r="O18" t="n">
-        <v>1235.575761688494</v>
+        <v>1165.125946150895</v>
       </c>
       <c r="P18" t="n">
-        <v>1595.299558590356</v>
+        <v>1387.323043731866</v>
       </c>
       <c r="Q18" t="n">
         <v>1646.291713657561</v>
@@ -5622,22 +5622,22 @@
         <v>1646.291713657561</v>
       </c>
       <c r="T18" t="n">
-        <v>1646.291713657561</v>
+        <v>1537.521603564714</v>
       </c>
       <c r="U18" t="n">
-        <v>1631.119890813129</v>
+        <v>1522.349780720282</v>
       </c>
       <c r="V18" t="n">
-        <v>1608.919889005703</v>
+        <v>1500.149778912856</v>
       </c>
       <c r="W18" t="n">
-        <v>1354.682532277502</v>
+        <v>1245.912422184655</v>
       </c>
       <c r="X18" t="n">
-        <v>1146.831032071969</v>
+        <v>1038.060921979122</v>
       </c>
       <c r="Y18" t="n">
-        <v>939.0707333070152</v>
+        <v>830.3006232141681</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.1216537928169</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="C19" t="n">
-        <v>303.1216537928169</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="D19" t="n">
-        <v>303.1216537928169</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="E19" t="n">
-        <v>303.1216537928169</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="F19" t="n">
-        <v>156.2317062949065</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="G19" t="n">
-        <v>156.2317062949065</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="H19" t="n">
-        <v>156.2317062949065</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="I19" t="n">
         <v>37.41402637574915</v>
@@ -5698,25 +5698,25 @@
         <v>1081.746257597543</v>
       </c>
       <c r="S19" t="n">
-        <v>877.6056668802964</v>
+        <v>1081.746257597543</v>
       </c>
       <c r="T19" t="n">
-        <v>733.3388651214177</v>
+        <v>1069.878169000507</v>
       </c>
       <c r="U19" t="n">
-        <v>444.1970163799438</v>
+        <v>993.6884266833504</v>
       </c>
       <c r="V19" t="n">
-        <v>402.4646345983739</v>
+        <v>739.0039384774635</v>
       </c>
       <c r="W19" t="n">
-        <v>325.9995709857303</v>
+        <v>662.5388748648199</v>
       </c>
       <c r="X19" t="n">
-        <v>310.96212651203</v>
+        <v>434.5493239668026</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.1216537928169</v>
+        <v>219.0624912059889</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1009.781501779941</v>
+        <v>836.3099442634166</v>
       </c>
       <c r="C20" t="n">
-        <v>853.7710912638462</v>
+        <v>680.2995337473219</v>
       </c>
       <c r="D20" t="n">
-        <v>708.4574990814127</v>
+        <v>534.9859415648884</v>
       </c>
       <c r="E20" t="n">
-        <v>535.6213529074855</v>
+        <v>362.1497953909612</v>
       </c>
       <c r="F20" t="n">
-        <v>337.587554542195</v>
+        <v>337.587554542196</v>
       </c>
       <c r="G20" t="n">
         <v>133.8739820716949</v>
@@ -5765,13 +5765,13 @@
         <v>956.5687576852829</v>
       </c>
       <c r="O20" t="n">
-        <v>1364.025956815529</v>
+        <v>1196.442087993983</v>
       </c>
       <c r="P20" t="n">
-        <v>1534.251293709415</v>
+        <v>1566.632321455024</v>
       </c>
       <c r="Q20" t="n">
-        <v>1620.304441222829</v>
+        <v>1646.291713657561</v>
       </c>
       <c r="R20" t="n">
         <v>1646.291713657561</v>
@@ -5783,19 +5783,19 @@
         <v>1646.291713657561</v>
       </c>
       <c r="U20" t="n">
-        <v>1605.585885056529</v>
+        <v>1605.58588505653</v>
       </c>
       <c r="V20" t="n">
-        <v>1487.475104137275</v>
+        <v>1487.475104137276</v>
       </c>
       <c r="W20" t="n">
-        <v>1347.658555291478</v>
+        <v>1347.658555291479</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.144903454715</v>
+        <v>1187.144903454716</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.429235419746</v>
+        <v>1009.957677903221</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>700.2143413591549</v>
+        <v>770.8553962869473</v>
       </c>
       <c r="C21" t="n">
-        <v>525.7613120780279</v>
+        <v>596.4023670058203</v>
       </c>
       <c r="D21" t="n">
-        <v>376.8269024167766</v>
+        <v>447.4679573445691</v>
       </c>
       <c r="E21" t="n">
-        <v>217.5894474113211</v>
+        <v>288.2305023391136</v>
       </c>
       <c r="F21" t="n">
-        <v>71.05488943820606</v>
+        <v>141.6959443659985</v>
       </c>
       <c r="G21" t="n">
-        <v>71.05488943820606</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="H21" t="n">
-        <v>71.05488943820606</v>
+        <v>32.92583427315122</v>
       </c>
       <c r="I21" t="n">
         <v>32.92583427315122</v>
       </c>
       <c r="J21" t="n">
-        <v>47.66774158115636</v>
+        <v>172.4978665681611</v>
       </c>
       <c r="K21" t="n">
-        <v>412.8394185943638</v>
+        <v>275.8489589389157</v>
       </c>
       <c r="L21" t="n">
-        <v>598.1302577589759</v>
+        <v>461.1397981035277</v>
       </c>
       <c r="M21" t="n">
-        <v>833.7127956320737</v>
+        <v>696.7223359766256</v>
       </c>
       <c r="N21" t="n">
-        <v>1089.9391472007</v>
+        <v>952.9486875452521</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.116405806343</v>
+        <v>1236.365154066569</v>
       </c>
       <c r="P21" t="n">
-        <v>1453.07429547164</v>
+        <v>1387.323043731866</v>
       </c>
       <c r="Q21" t="n">
         <v>1646.291713657561</v>
@@ -5862,19 +5862,19 @@
         <v>1646.291713657561</v>
       </c>
       <c r="U21" t="n">
-        <v>1560.478835885337</v>
+        <v>1631.119890813129</v>
       </c>
       <c r="V21" t="n">
-        <v>1538.278834077911</v>
+        <v>1395.967782581387</v>
       </c>
       <c r="W21" t="n">
-        <v>1284.04147734971</v>
+        <v>1354.682532277502</v>
       </c>
       <c r="X21" t="n">
-        <v>1076.189977144177</v>
+        <v>1146.831032071969</v>
       </c>
       <c r="Y21" t="n">
-        <v>868.4296783792229</v>
+        <v>939.0707333070154</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>617.1676052916584</v>
+        <v>206.3502093036561</v>
       </c>
       <c r="C22" t="n">
-        <v>617.1676052916584</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="D22" t="n">
-        <v>467.0509658793227</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="E22" t="n">
-        <v>467.0509658793227</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="F22" t="n">
-        <v>320.1610183814123</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="G22" t="n">
-        <v>151.7435141923086</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="H22" t="n">
-        <v>151.7435141923086</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="I22" t="n">
-        <v>32.92583427315122</v>
+        <v>37.41402637574915</v>
       </c>
       <c r="J22" t="n">
         <v>32.92583427315122</v>
@@ -5932,28 +5932,28 @@
         <v>1203.710767300622</v>
       </c>
       <c r="R22" t="n">
-        <v>1203.710767300622</v>
+        <v>1081.746257597543</v>
       </c>
       <c r="S22" t="n">
-        <v>1203.710767300622</v>
+        <v>1043.036080483849</v>
       </c>
       <c r="T22" t="n">
-        <v>1191.842678703587</v>
+        <v>1031.167991886814</v>
       </c>
       <c r="U22" t="n">
-        <v>902.7008299621127</v>
+        <v>954.9782495696567</v>
       </c>
       <c r="V22" t="n">
-        <v>860.9684481805429</v>
+        <v>913.2458677880868</v>
       </c>
       <c r="W22" t="n">
-        <v>640.0455224845718</v>
+        <v>836.7808041754432</v>
       </c>
       <c r="X22" t="n">
-        <v>625.0080780108715</v>
+        <v>608.7912532774259</v>
       </c>
       <c r="Y22" t="n">
-        <v>617.1676052916584</v>
+        <v>387.9986741338957</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1013.321737647626</v>
+        <v>1013.321737647625</v>
       </c>
       <c r="C23" t="n">
-        <v>857.3113271315315</v>
+        <v>857.3113271315308</v>
       </c>
       <c r="D23" t="n">
-        <v>711.997734949098</v>
+        <v>711.9977349490975</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1615887751709</v>
+        <v>539.1615887751705</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1277904098804</v>
+        <v>341.1277904098799</v>
       </c>
       <c r="G23" t="n">
         <v>137.4142179393791</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="J23" t="n">
-        <v>92.81284696934996</v>
+        <v>92.81284696934995</v>
       </c>
       <c r="K23" t="n">
         <v>228.0005772861986</v>
@@ -5996,31 +5996,31 @@
         <v>432.6146727190213</v>
       </c>
       <c r="M23" t="n">
-        <v>883.8822907118596</v>
+        <v>882.2778296438092</v>
       </c>
       <c r="N23" t="n">
-        <v>1333.545447636648</v>
+        <v>1333.545447636647</v>
       </c>
       <c r="O23" t="n">
-        <v>1573.418777945348</v>
+        <v>1573.418777945347</v>
       </c>
       <c r="P23" t="n">
         <v>1743.644114839233</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.597678440739</v>
+        <v>1782.597678440738</v>
       </c>
       <c r="V23" t="n">
         <v>1664.486897521485</v>
@@ -6032,7 +6032,7 @@
         <v>1364.156696838925</v>
       </c>
       <c r="Y23" t="n">
-        <v>1186.969471287431</v>
+        <v>1186.96947128743</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>519.0909640886692</v>
+        <v>727.8253812175055</v>
       </c>
       <c r="C24" t="n">
-        <v>344.6379348075422</v>
+        <v>553.3723519363785</v>
       </c>
       <c r="D24" t="n">
-        <v>195.7035251462909</v>
+        <v>404.4379422751273</v>
       </c>
       <c r="E24" t="n">
-        <v>36.46607014083542</v>
+        <v>245.2004872696718</v>
       </c>
       <c r="F24" t="n">
-        <v>36.46607014083542</v>
+        <v>98.66592929655675</v>
       </c>
       <c r="G24" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="H24" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="J24" t="n">
-        <v>51.20797744884056</v>
+        <v>51.20797744884055</v>
       </c>
       <c r="K24" t="n">
         <v>416.379654462048</v>
       </c>
       <c r="L24" t="n">
-        <v>709.3907994034112</v>
+        <v>601.67049362666</v>
       </c>
       <c r="M24" t="n">
-        <v>944.973337276509</v>
+        <v>837.2530314997578</v>
       </c>
       <c r="N24" t="n">
-        <v>1201.199688845136</v>
+        <v>1093.479383068384</v>
       </c>
       <c r="O24" t="n">
-        <v>1413.376947450779</v>
+        <v>1305.656641674027</v>
       </c>
       <c r="P24" t="n">
-        <v>1564.334837116076</v>
+        <v>1564.334837116075</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="R24" t="n">
         <v>1816.213805012437</v>
@@ -6099,19 +6099,19 @@
         <v>1816.213805012437</v>
       </c>
       <c r="U24" t="n">
-        <v>1592.307565039168</v>
+        <v>1801.041982168005</v>
       </c>
       <c r="V24" t="n">
-        <v>1357.155456807425</v>
+        <v>1565.889873936262</v>
       </c>
       <c r="W24" t="n">
-        <v>1102.918100079224</v>
+        <v>1311.65251720806</v>
       </c>
       <c r="X24" t="n">
-        <v>895.0665998736911</v>
+        <v>1103.801017002527</v>
       </c>
       <c r="Y24" t="n">
-        <v>687.3063011087372</v>
+        <v>896.0407182375736</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.4014994272659</v>
+        <v>504.1748075128405</v>
       </c>
       <c r="C25" t="n">
-        <v>507.4014994272659</v>
+        <v>504.1748075128405</v>
       </c>
       <c r="D25" t="n">
-        <v>357.2848600149301</v>
+        <v>504.1748075128405</v>
       </c>
       <c r="E25" t="n">
-        <v>209.371766432537</v>
+        <v>356.2617139304474</v>
       </c>
       <c r="F25" t="n">
         <v>209.371766432537</v>
       </c>
       <c r="G25" t="n">
-        <v>40.95426224343335</v>
+        <v>40.95426224343333</v>
       </c>
       <c r="H25" t="n">
-        <v>40.95426224343335</v>
+        <v>40.95426224343333</v>
       </c>
       <c r="I25" t="n">
-        <v>40.95426224343335</v>
+        <v>40.95426224343333</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46607014083542</v>
+        <v>36.46607014083541</v>
       </c>
       <c r="K25" t="n">
         <v>159.0742005307403</v>
@@ -6172,25 +6172,25 @@
         <v>1207.251003168306</v>
       </c>
       <c r="S25" t="n">
-        <v>1162.438905777219</v>
+        <v>1207.251003168306</v>
       </c>
       <c r="T25" t="n">
-        <v>1150.570817180184</v>
+        <v>1195.382914571271</v>
       </c>
       <c r="U25" t="n">
-        <v>1074.381074863027</v>
+        <v>906.2410658297968</v>
       </c>
       <c r="V25" t="n">
-        <v>1032.648693081457</v>
+        <v>864.5086840482269</v>
       </c>
       <c r="W25" t="n">
-        <v>956.1836294688134</v>
+        <v>788.0436204355833</v>
       </c>
       <c r="X25" t="n">
-        <v>728.194078570796</v>
+        <v>773.0061759618829</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.4014994272659</v>
+        <v>685.8232723430802</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.215593200415</v>
+        <v>1873.215593200416</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.027061193445</v>
+        <v>1584.027061193446</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E26" t="n">
-        <v>999.5210798553333</v>
+        <v>999.5210798553343</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3091599991675</v>
+        <v>668.3091599991681</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4174660377907</v>
+        <v>331.4174660377909</v>
       </c>
       <c r="H26" t="n">
-        <v>97.2911967483717</v>
+        <v>97.29119674837173</v>
       </c>
       <c r="I26" t="n">
         <v>73.64533192957364</v>
@@ -6230,19 +6230,19 @@
         <v>753.4894465407428</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.588144378512</v>
+        <v>958.1035419735655</v>
       </c>
       <c r="M26" t="n">
-        <v>2075.948586064947</v>
+        <v>1662.463983660001</v>
       </c>
       <c r="N26" t="n">
-        <v>2777.074318538225</v>
+        <v>2260.756523345636</v>
       </c>
       <c r="O26" t="n">
-        <v>3393.939828297043</v>
+        <v>2877.622033104454</v>
       </c>
       <c r="P26" t="n">
-        <v>3576.619931841413</v>
+        <v>3366.428091088107</v>
       </c>
       <c r="Q26" t="n">
         <v>3656.279324043951</v>
@@ -6257,16 +6257,16 @@
         <v>3482.266091539814</v>
       </c>
       <c r="U26" t="n">
-        <v>3308.382141447906</v>
+        <v>3308.382141447907</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.093239037777</v>
+        <v>3057.093239037778</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.098568701104</v>
+        <v>2784.098568701105</v>
       </c>
       <c r="X26" t="n">
-        <v>2490.406795373466</v>
+        <v>2490.406795373467</v>
       </c>
       <c r="Y26" t="n">
         <v>2180.041448331096</v>
@@ -6303,25 +6303,25 @@
         <v>73.64533192957364</v>
       </c>
       <c r="J27" t="n">
-        <v>213.2173642245835</v>
+        <v>88.38723923757875</v>
       </c>
       <c r="K27" t="n">
-        <v>578.3890412377908</v>
+        <v>191.7383316083333</v>
       </c>
       <c r="L27" t="n">
-        <v>1130.811822252827</v>
+        <v>377.0291707729452</v>
       </c>
       <c r="M27" t="n">
-        <v>1433.056904943494</v>
+        <v>1073.659721758543</v>
       </c>
       <c r="N27" t="n">
-        <v>1689.28325651212</v>
+        <v>1804.435023927287</v>
       </c>
       <c r="O27" t="n">
-        <v>1901.460515117763</v>
+        <v>2406.535978616892</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.696545736598</v>
+        <v>2557.493868282189</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.665215662294</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>568.8897160466016</v>
+        <v>568.8897160466014</v>
       </c>
       <c r="C28" t="n">
-        <v>479.7275180521362</v>
+        <v>479.7275180521359</v>
       </c>
       <c r="D28" t="n">
-        <v>409.3848635732419</v>
+        <v>409.3848635732416</v>
       </c>
       <c r="E28" t="n">
-        <v>341.2457549242903</v>
+        <v>341.2457549242899</v>
       </c>
       <c r="F28" t="n">
-        <v>274.1297923598214</v>
+        <v>274.1297923598211</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4862731041592</v>
+        <v>185.4862731041588</v>
       </c>
       <c r="H28" t="n">
         <v>112.6890269152896</v>
@@ -6391,22 +6391,22 @@
         <v>638.8366621397049</v>
       </c>
       <c r="M28" t="n">
-        <v>951.382146297845</v>
+        <v>951.3821462978449</v>
       </c>
       <c r="N28" t="n">
         <v>1263.789713639701</v>
       </c>
       <c r="O28" t="n">
-        <v>1542.300982267959</v>
+        <v>1542.300982267958</v>
       </c>
       <c r="P28" t="n">
         <v>1768.379244267235</v>
       </c>
       <c r="Q28" t="n">
-        <v>1865.523248943416</v>
+        <v>1865.523248943415</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.332724173778</v>
+        <v>1823.332724173777</v>
       </c>
       <c r="S28" t="n">
         <v>1698.966118389973</v>
@@ -6418,16 +6418,16 @@
         <v>1344.552044494029</v>
       </c>
       <c r="V28" t="n">
-        <v>1169.641541221584</v>
+        <v>1169.641541221583</v>
       </c>
       <c r="W28" t="n">
-        <v>959.9983561180644</v>
+        <v>959.9983561180643</v>
       </c>
       <c r="X28" t="n">
-        <v>811.7827901534886</v>
+        <v>811.7827901534882</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.7641959433998</v>
+        <v>670.7641959433996</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.215593200415</v>
+        <v>1873.215593200416</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.027061193445</v>
+        <v>1584.027061193446</v>
       </c>
       <c r="D29" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5210798553335</v>
+        <v>999.5210798553342</v>
       </c>
       <c r="F29" t="n">
-        <v>668.3091599991676</v>
+        <v>668.3091599991681</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4174660377909</v>
+        <v>331.4174660377912</v>
       </c>
       <c r="H29" t="n">
         <v>97.29119674837176</v>
       </c>
       <c r="I29" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J29" t="n">
-        <v>129.9921087580881</v>
+        <v>129.9921087580882</v>
       </c>
       <c r="K29" t="n">
-        <v>265.1798390749366</v>
+        <v>581.7396448726536</v>
       </c>
       <c r="L29" t="n">
-        <v>883.278536912705</v>
+        <v>1199.838342710422</v>
       </c>
       <c r="M29" t="n">
-        <v>1587.63897859914</v>
+        <v>1904.198784396857</v>
       </c>
       <c r="N29" t="n">
-        <v>2288.764711072419</v>
+        <v>2605.324516870136</v>
       </c>
       <c r="O29" t="n">
-        <v>2905.630220831237</v>
+        <v>3222.190026628954</v>
       </c>
       <c r="P29" t="n">
-        <v>3394.43627881489</v>
+        <v>3392.415363522839</v>
       </c>
       <c r="Q29" t="n">
-        <v>3682.266596478682</v>
+        <v>3682.266596478683</v>
       </c>
       <c r="R29" t="n">
-        <v>3682.266596478682</v>
+        <v>3682.266596478683</v>
       </c>
       <c r="S29" t="n">
         <v>3615.44421303069</v>
@@ -6497,16 +6497,16 @@
         <v>3308.382141447907</v>
       </c>
       <c r="V29" t="n">
-        <v>3057.093239037777</v>
+        <v>3057.093239037778</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.098568701104</v>
+        <v>2784.098568701105</v>
       </c>
       <c r="X29" t="n">
-        <v>2490.406795373466</v>
+        <v>2490.406795373467</v>
       </c>
       <c r="Y29" t="n">
-        <v>2180.041448331095</v>
+        <v>2180.041448331096</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>111.7743870946285</v>
       </c>
       <c r="I30" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J30" t="n">
         <v>213.2173642245835</v>
       </c>
       <c r="K30" t="n">
-        <v>578.3890412377908</v>
+        <v>578.3890412377909</v>
       </c>
       <c r="L30" t="n">
-        <v>1130.811822252827</v>
+        <v>1130.811822252828</v>
       </c>
       <c r="M30" t="n">
         <v>1366.394360125925</v>
@@ -6555,7 +6555,7 @@
         <v>1622.620711694552</v>
       </c>
       <c r="O30" t="n">
-        <v>1901.460515117764</v>
+        <v>1901.460515117763</v>
       </c>
       <c r="P30" t="n">
         <v>2367.696545736598</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>568.8897160466013</v>
+        <v>568.8897160466011</v>
       </c>
       <c r="C31" t="n">
-        <v>479.7275180521358</v>
+        <v>479.7275180521356</v>
       </c>
       <c r="D31" t="n">
-        <v>409.3848635732415</v>
+        <v>409.3848635732413</v>
       </c>
       <c r="E31" t="n">
-        <v>341.2457549242898</v>
+        <v>341.2457549242897</v>
       </c>
       <c r="F31" t="n">
-        <v>274.129792359821</v>
+        <v>274.1297923598207</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4862731041587</v>
+        <v>185.4862731041585</v>
       </c>
       <c r="H31" t="n">
-        <v>112.6890269152894</v>
+        <v>112.6890269152891</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J31" t="n">
-        <v>147.432937483083</v>
+        <v>147.4329374830834</v>
       </c>
       <c r="K31" t="n">
-        <v>348.2275505062539</v>
+        <v>348.2275505062542</v>
       </c>
       <c r="L31" t="n">
-        <v>638.8366621397046</v>
+        <v>638.836662139705</v>
       </c>
       <c r="M31" t="n">
-        <v>951.3821462978447</v>
+        <v>951.3821462978449</v>
       </c>
       <c r="N31" t="n">
         <v>1263.789713639701</v>
@@ -6655,16 +6655,16 @@
         <v>1344.552044494029</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.641541221584</v>
+        <v>1169.641541221583</v>
       </c>
       <c r="W31" t="n">
-        <v>959.9983561180643</v>
+        <v>959.9983561180641</v>
       </c>
       <c r="X31" t="n">
-        <v>811.7827901534885</v>
+        <v>811.7827901534881</v>
       </c>
       <c r="Y31" t="n">
-        <v>670.7641959433995</v>
+        <v>670.7641959433993</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.215593200416</v>
+        <v>1873.215593200417</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.027061193445</v>
+        <v>1584.027061193447</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E32" t="n">
-        <v>999.5210798553337</v>
+        <v>999.5210798553343</v>
       </c>
       <c r="F32" t="n">
-        <v>668.3091599991676</v>
+        <v>668.3091599991681</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4174660377909</v>
+        <v>331.4174660377912</v>
       </c>
       <c r="H32" t="n">
-        <v>97.29119674837173</v>
+        <v>97.29119674837182</v>
       </c>
       <c r="I32" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J32" t="n">
-        <v>129.9921087580881</v>
+        <v>129.9921087580882</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0837975203897</v>
+        <v>473.3507645361915</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.182495358158</v>
+        <v>1091.44946237396</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.542937044593</v>
+        <v>1795.809904060395</v>
       </c>
       <c r="N32" t="n">
-        <v>2609.668669517872</v>
+        <v>2496.935636533674</v>
       </c>
       <c r="O32" t="n">
-        <v>3226.53417927669</v>
+        <v>3113.801146292492</v>
       </c>
       <c r="P32" t="n">
-        <v>3576.619931841413</v>
+        <v>3602.607204276145</v>
       </c>
       <c r="Q32" t="n">
-        <v>3656.279324043951</v>
+        <v>3682.266596478683</v>
       </c>
       <c r="R32" t="n">
-        <v>3682.266596478682</v>
+        <v>3682.266596478683</v>
       </c>
       <c r="S32" t="n">
-        <v>3615.44421303069</v>
+        <v>3615.444213030691</v>
       </c>
       <c r="T32" t="n">
-        <v>3482.266091539814</v>
+        <v>3482.266091539815</v>
       </c>
       <c r="U32" t="n">
-        <v>3308.382141447906</v>
+        <v>3308.382141447908</v>
       </c>
       <c r="V32" t="n">
-        <v>3057.093239037777</v>
+        <v>3057.093239037779</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.098568701104</v>
+        <v>2784.098568701106</v>
       </c>
       <c r="X32" t="n">
-        <v>2490.406795373466</v>
+        <v>2490.406795373468</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.041448331096</v>
+        <v>2180.041448331097</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>111.7743870946285</v>
       </c>
       <c r="I33" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J33" t="n">
         <v>213.2173642245835</v>
       </c>
       <c r="K33" t="n">
-        <v>578.3890412377908</v>
+        <v>578.3890412377909</v>
       </c>
       <c r="L33" t="n">
-        <v>1130.811822252827</v>
+        <v>1130.811822252828</v>
       </c>
       <c r="M33" t="n">
-        <v>1366.394360125925</v>
+        <v>1433.056904943493</v>
       </c>
       <c r="N33" t="n">
-        <v>1622.620711694552</v>
+        <v>1689.28325651212</v>
       </c>
       <c r="O33" t="n">
-        <v>1901.460515117764</v>
+        <v>1901.460515117763</v>
       </c>
       <c r="P33" t="n">
         <v>2367.696545736598</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.8897160466014</v>
+        <v>568.889716046602</v>
       </c>
       <c r="C34" t="n">
-        <v>479.7275180521359</v>
+        <v>479.7275180521365</v>
       </c>
       <c r="D34" t="n">
-        <v>409.3848635732417</v>
+        <v>409.3848635732421</v>
       </c>
       <c r="E34" t="n">
-        <v>341.24575492429</v>
+        <v>341.2457549242904</v>
       </c>
       <c r="F34" t="n">
-        <v>274.1297923598211</v>
+        <v>274.1297923598214</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4862731041589</v>
+        <v>185.4862731041591</v>
       </c>
       <c r="H34" t="n">
-        <v>112.6890269152896</v>
+        <v>112.6890269152897</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64533192957364</v>
+        <v>73.64533192957366</v>
       </c>
       <c r="J34" t="n">
-        <v>147.4329374830834</v>
+        <v>147.4329374830833</v>
       </c>
       <c r="K34" t="n">
-        <v>348.2275505062542</v>
+        <v>348.2275505062557</v>
       </c>
       <c r="L34" t="n">
-        <v>638.8366621397049</v>
+        <v>638.8366621397063</v>
       </c>
       <c r="M34" t="n">
-        <v>951.3821462978449</v>
+        <v>951.3821462978462</v>
       </c>
       <c r="N34" t="n">
-        <v>1263.789713639701</v>
+        <v>1263.789713639702</v>
       </c>
       <c r="O34" t="n">
-        <v>1542.300982267958</v>
+        <v>1542.30098226796</v>
       </c>
       <c r="P34" t="n">
-        <v>1768.379244267235</v>
+        <v>1768.379244267236</v>
       </c>
       <c r="Q34" t="n">
-        <v>1865.523248943415</v>
+        <v>1865.523248943417</v>
       </c>
       <c r="R34" t="n">
-        <v>1823.332724173777</v>
+        <v>1823.332724173779</v>
       </c>
       <c r="S34" t="n">
-        <v>1698.966118389972</v>
+        <v>1698.966118389974</v>
       </c>
       <c r="T34" t="n">
-        <v>1553.919908302061</v>
+        <v>1553.919908302063</v>
       </c>
       <c r="U34" t="n">
-        <v>1344.552044494028</v>
+        <v>1344.55204449403</v>
       </c>
       <c r="V34" t="n">
-        <v>1169.641541221583</v>
+        <v>1169.641541221584</v>
       </c>
       <c r="W34" t="n">
-        <v>959.9983561180641</v>
+        <v>959.998356118065</v>
       </c>
       <c r="X34" t="n">
-        <v>811.7827901534882</v>
+        <v>811.782790153489</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.7641959433996</v>
+        <v>670.7641959434003</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.580781882096</v>
+        <v>1382.580781882097</v>
       </c>
       <c r="C35" t="n">
-        <v>1167.633260071249</v>
+        <v>1167.63326007125</v>
       </c>
       <c r="D35" t="n">
-        <v>963.382556594063</v>
+        <v>963.3825565940635</v>
       </c>
       <c r="E35" t="n">
-        <v>731.6092991253831</v>
+        <v>731.6092991253836</v>
       </c>
       <c r="F35" t="n">
-        <v>474.63838946534</v>
+        <v>474.6383894653403</v>
       </c>
       <c r="G35" t="n">
         <v>211.9877057000865</v>
       </c>
       <c r="H35" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I35" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4492234353046</v>
+        <v>275.8548724556578</v>
       </c>
       <c r="K35" t="n">
-        <v>244.2224425333888</v>
+        <v>415.0114179848674</v>
       </c>
       <c r="L35" t="n">
-        <v>448.8365379662114</v>
+        <v>1033.110115822636</v>
       </c>
       <c r="M35" t="n">
-        <v>1093.60431472524</v>
+        <v>1292.452159351167</v>
       </c>
       <c r="N35" t="n">
-        <v>1738.372091484268</v>
+        <v>1560.604436656582</v>
       </c>
       <c r="O35" t="n">
-        <v>2355.237601243086</v>
+        <v>1800.477766965282</v>
       </c>
       <c r="P35" t="n">
-        <v>2525.462938136971</v>
+        <v>2289.283824948935</v>
       </c>
       <c r="Q35" t="n">
-        <v>2605.122330339509</v>
+        <v>2579.135057904778</v>
       </c>
       <c r="R35" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="S35" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="T35" t="n">
-        <v>2546.185219044757</v>
+        <v>2546.185219044758</v>
       </c>
       <c r="U35" t="n">
-        <v>2446.542279148973</v>
+        <v>2446.542279148974</v>
       </c>
       <c r="V35" t="n">
-        <v>2269.494386934966</v>
+        <v>2269.494386934967</v>
       </c>
       <c r="W35" t="n">
         <v>2070.740726794417</v>
       </c>
       <c r="X35" t="n">
-        <v>1851.289963662901</v>
+        <v>1851.289963662902</v>
       </c>
       <c r="Y35" t="n">
         <v>1615.165626816654</v>
@@ -6990,55 +6990,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.3412975349523</v>
+        <v>955.3412975349515</v>
       </c>
       <c r="C36" t="n">
-        <v>780.8882682538253</v>
+        <v>780.8882682538245</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925734</v>
       </c>
       <c r="E36" t="n">
-        <v>472.7164035871185</v>
+        <v>472.7164035871178</v>
       </c>
       <c r="F36" t="n">
-        <v>326.1818456140035</v>
+        <v>326.1818456140029</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9662929185217</v>
+        <v>188.9662929185215</v>
       </c>
       <c r="H36" t="n">
         <v>90.23150177184505</v>
       </c>
       <c r="I36" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J36" t="n">
-        <v>191.6744789018</v>
+        <v>66.84435391479533</v>
       </c>
       <c r="K36" t="n">
-        <v>556.8461559150073</v>
+        <v>432.0160309280028</v>
       </c>
       <c r="L36" t="n">
-        <v>1109.268936930044</v>
+        <v>617.3068700926149</v>
       </c>
       <c r="M36" t="n">
-        <v>1411.514019620711</v>
+        <v>1262.074646851644</v>
       </c>
       <c r="N36" t="n">
-        <v>1667.740371189338</v>
+        <v>1801.071330917403</v>
       </c>
       <c r="O36" t="n">
-        <v>1879.91762979498</v>
+        <v>2403.172285607008</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.153660413815</v>
+        <v>2554.130175272305</v>
       </c>
       <c r="Q36" t="n">
         <v>2605.12233033951</v>
       </c>
       <c r="R36" t="n">
-        <v>2598.032628310177</v>
+        <v>2598.032628310176</v>
       </c>
       <c r="S36" t="n">
         <v>2452.760809976888</v>
@@ -7050,13 +7050,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.405790253709</v>
+        <v>1793.405790253708</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.168433525507</v>
+        <v>1539.168433525506</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.316933319974</v>
+        <v>1331.316933319973</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.55663455502</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>408.3574579465035</v>
+        <v>231.5427828770079</v>
       </c>
       <c r="C37" t="n">
-        <v>393.436270148161</v>
+        <v>216.6215950786653</v>
       </c>
       <c r="D37" t="n">
-        <v>243.3196307358253</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="E37" t="n">
-        <v>95.40653715343214</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="F37" t="n">
-        <v>95.40653715343214</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="G37" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="H37" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I37" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J37" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="K37" t="n">
-        <v>174.710576996695</v>
+        <v>174.7105769966951</v>
       </c>
       <c r="L37" t="n">
-        <v>387.1332059968797</v>
+        <v>387.1332059968798</v>
       </c>
       <c r="M37" t="n">
-        <v>621.4922075217537</v>
+        <v>621.4922075217539</v>
       </c>
       <c r="N37" t="n">
-        <v>855.7132922303439</v>
+        <v>855.7132922303441</v>
       </c>
       <c r="O37" t="n">
         <v>1056.038078225336</v>
@@ -7114,31 +7114,31 @@
         <v>1203.929857591346</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="R37" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="S37" t="n">
-        <v>1172.761784046578</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T37" t="n">
-        <v>1101.95658415479</v>
+        <v>947.9415890252264</v>
       </c>
       <c r="U37" t="n">
-        <v>966.8297305428807</v>
+        <v>790.0150554733851</v>
       </c>
       <c r="V37" t="n">
-        <v>866.1602374665582</v>
+        <v>689.3455623970626</v>
       </c>
       <c r="W37" t="n">
-        <v>730.758062559162</v>
+        <v>553.9433874896663</v>
       </c>
       <c r="X37" t="n">
-        <v>656.783506790709</v>
+        <v>325.953836591649</v>
       </c>
       <c r="Y37" t="n">
-        <v>435.9909276471789</v>
+        <v>259.1762525776832</v>
       </c>
     </row>
     <row r="38">
@@ -7154,58 +7154,58 @@
         <v>1167.633260071249</v>
       </c>
       <c r="D38" t="n">
-        <v>963.382556594063</v>
+        <v>963.3825565940629</v>
       </c>
       <c r="E38" t="n">
-        <v>731.6092991253831</v>
+        <v>731.609299125383</v>
       </c>
       <c r="F38" t="n">
-        <v>474.63838946534</v>
+        <v>474.6383894653398</v>
       </c>
       <c r="G38" t="n">
         <v>211.9877057000865</v>
       </c>
       <c r="H38" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I38" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8548724556576</v>
+        <v>275.8548724556578</v>
       </c>
       <c r="K38" t="n">
-        <v>411.0426027725061</v>
+        <v>731.9465612179595</v>
       </c>
       <c r="L38" t="n">
-        <v>1029.141300610275</v>
+        <v>936.5606566507822</v>
       </c>
       <c r="M38" t="n">
-        <v>1292.452159351167</v>
+        <v>1195.902700179313</v>
       </c>
       <c r="N38" t="n">
-        <v>1560.604436656581</v>
+        <v>1464.054977484728</v>
       </c>
       <c r="O38" t="n">
-        <v>1800.477766965281</v>
+        <v>1826.465039400013</v>
       </c>
       <c r="P38" t="n">
-        <v>2289.283824948934</v>
+        <v>2315.271097383667</v>
       </c>
       <c r="Q38" t="n">
-        <v>2579.135057904778</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="R38" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="S38" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="T38" t="n">
         <v>2546.185219044757</v>
       </c>
       <c r="U38" t="n">
-        <v>2446.542279148972</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V38" t="n">
         <v>2269.494386934966</v>
@@ -7227,55 +7227,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.3412975349523</v>
+        <v>955.3412975349515</v>
       </c>
       <c r="C39" t="n">
-        <v>780.8882682538253</v>
+        <v>780.8882682538245</v>
       </c>
       <c r="D39" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925734</v>
       </c>
       <c r="E39" t="n">
-        <v>472.7164035871185</v>
+        <v>472.7164035871178</v>
       </c>
       <c r="F39" t="n">
-        <v>326.1818456140035</v>
+        <v>326.1818456140029</v>
       </c>
       <c r="G39" t="n">
-        <v>188.9662929185217</v>
+        <v>188.9662929185216</v>
       </c>
       <c r="H39" t="n">
         <v>90.23150177184505</v>
       </c>
       <c r="I39" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J39" t="n">
-        <v>191.6744789018</v>
+        <v>191.6744789018001</v>
       </c>
       <c r="K39" t="n">
-        <v>556.8461559150073</v>
+        <v>556.8461559150076</v>
       </c>
       <c r="L39" t="n">
-        <v>1109.268936930044</v>
+        <v>742.1369950796195</v>
       </c>
       <c r="M39" t="n">
-        <v>1411.51401962071</v>
+        <v>977.7195329527174</v>
       </c>
       <c r="N39" t="n">
-        <v>1667.740371189336</v>
+        <v>1622.487309711746</v>
       </c>
       <c r="O39" t="n">
-        <v>1879.917629794979</v>
+        <v>1879.91762979498</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.153660413814</v>
+        <v>2346.153660413815</v>
       </c>
       <c r="Q39" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="R39" t="n">
-        <v>2598.032628310175</v>
+        <v>2598.032628310176</v>
       </c>
       <c r="S39" t="n">
         <v>2452.760809976888</v>
@@ -7287,13 +7287,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.405790253709</v>
+        <v>1793.405790253708</v>
       </c>
       <c r="W39" t="n">
-        <v>1539.168433525507</v>
+        <v>1539.168433525506</v>
       </c>
       <c r="X39" t="n">
-        <v>1331.316933319974</v>
+        <v>1331.316933319973</v>
       </c>
       <c r="Y39" t="n">
         <v>1123.55663455502</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.5427828770077</v>
+        <v>81.42614346467214</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6215950786652</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="D40" t="n">
-        <v>66.50495566632948</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="E40" t="n">
-        <v>66.50495566632948</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="F40" t="n">
-        <v>66.50495566632948</v>
+        <v>66.50495566632955</v>
       </c>
       <c r="G40" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="H40" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I40" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J40" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="K40" t="n">
-        <v>174.710576996695</v>
+        <v>174.7105769966951</v>
       </c>
       <c r="L40" t="n">
-        <v>387.1332059968797</v>
+        <v>387.1332059968798</v>
       </c>
       <c r="M40" t="n">
-        <v>621.4922075217537</v>
+        <v>621.4922075217539</v>
       </c>
       <c r="N40" t="n">
-        <v>855.7132922303439</v>
+        <v>855.7132922303441</v>
       </c>
       <c r="O40" t="n">
         <v>1056.038078225336</v>
@@ -7351,31 +7351,31 @@
         <v>1203.929857591346</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="R40" t="n">
-        <v>1200.087699694329</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="S40" t="n">
-        <v>1149.962104106647</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T40" t="n">
-        <v>1079.156904214859</v>
+        <v>1101.956584154791</v>
       </c>
       <c r="U40" t="n">
-        <v>944.0300506029492</v>
+        <v>947.9284063201782</v>
       </c>
       <c r="V40" t="n">
-        <v>843.3605575266267</v>
+        <v>693.2439181142913</v>
       </c>
       <c r="W40" t="n">
-        <v>553.9433874896661</v>
+        <v>557.841743206895</v>
       </c>
       <c r="X40" t="n">
-        <v>325.9538365916487</v>
+        <v>483.867187438442</v>
       </c>
       <c r="Y40" t="n">
-        <v>259.176252577683</v>
+        <v>263.0746082949119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1382.580781882097</v>
+        <v>1382.580781882098</v>
       </c>
       <c r="C41" t="n">
-        <v>1167.63326007125</v>
+        <v>1167.633260071251</v>
       </c>
       <c r="D41" t="n">
-        <v>963.3825565940638</v>
+        <v>963.3825565940645</v>
       </c>
       <c r="E41" t="n">
-        <v>731.609299125384</v>
+        <v>731.6092991253845</v>
       </c>
       <c r="F41" t="n">
-        <v>474.6383894653411</v>
+        <v>474.6383894653413</v>
       </c>
       <c r="G41" t="n">
         <v>211.9877057000865</v>
       </c>
       <c r="H41" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679022</v>
       </c>
       <c r="I41" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679022</v>
       </c>
       <c r="J41" t="n">
-        <v>108.4492234353047</v>
+        <v>275.8548724556578</v>
       </c>
       <c r="K41" t="n">
-        <v>564.5409121976063</v>
+        <v>440.9986904195998</v>
       </c>
       <c r="L41" t="n">
-        <v>1182.639610035375</v>
+        <v>1059.097388257368</v>
       </c>
       <c r="M41" t="n">
-        <v>1441.981653563906</v>
+        <v>1318.4394317859</v>
       </c>
       <c r="N41" t="n">
-        <v>1710.13393086932</v>
+        <v>1586.591709091314</v>
       </c>
       <c r="O41" t="n">
-        <v>2145.045760489781</v>
+        <v>1826.465039400014</v>
       </c>
       <c r="P41" t="n">
         <v>2315.271097383667</v>
       </c>
       <c r="Q41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339511</v>
       </c>
       <c r="R41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339511</v>
       </c>
       <c r="S41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339511</v>
       </c>
       <c r="T41" t="n">
-        <v>2546.185219044758</v>
+        <v>2546.185219044759</v>
       </c>
       <c r="U41" t="n">
-        <v>2446.542279148974</v>
+        <v>2446.542279148975</v>
       </c>
       <c r="V41" t="n">
-        <v>2269.494386934967</v>
+        <v>2269.494386934968</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.740726794417</v>
+        <v>2070.740726794418</v>
       </c>
       <c r="X41" t="n">
-        <v>1851.289963662902</v>
+        <v>1851.289963662903</v>
       </c>
       <c r="Y41" t="n">
         <v>1615.165626816655</v>
@@ -7464,55 +7464,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.3412975349515</v>
+        <v>955.3412975349523</v>
       </c>
       <c r="C42" t="n">
-        <v>780.8882682538245</v>
+        <v>780.8882682538253</v>
       </c>
       <c r="D42" t="n">
-        <v>631.9538585925734</v>
+        <v>631.9538585925741</v>
       </c>
       <c r="E42" t="n">
-        <v>472.7164035871178</v>
+        <v>472.7164035871186</v>
       </c>
       <c r="F42" t="n">
-        <v>326.1818456140029</v>
+        <v>326.1818456140036</v>
       </c>
       <c r="G42" t="n">
-        <v>188.9662929185215</v>
+        <v>188.9662929185217</v>
       </c>
       <c r="H42" t="n">
         <v>90.23150177184506</v>
       </c>
       <c r="I42" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679022</v>
       </c>
       <c r="J42" t="n">
-        <v>76.3898424938979</v>
+        <v>191.6744789018001</v>
       </c>
       <c r="K42" t="n">
-        <v>441.5615195071052</v>
+        <v>556.8461559150076</v>
       </c>
       <c r="L42" t="n">
-        <v>993.9843005221417</v>
+        <v>1109.268936930044</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.566838395239</v>
+        <v>1344.851474803142</v>
       </c>
       <c r="N42" t="n">
-        <v>1485.793189963866</v>
+        <v>1601.077826371769</v>
       </c>
       <c r="O42" t="n">
-        <v>2087.89414465347</v>
+        <v>1879.91762979498</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.130175272305</v>
+        <v>2346.153660413815</v>
       </c>
       <c r="Q42" t="n">
         <v>2605.12233033951</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.032628310176</v>
+        <v>2598.032628310177</v>
       </c>
       <c r="S42" t="n">
         <v>2452.760809976888</v>
@@ -7524,13 +7524,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.405790253708</v>
+        <v>1793.405790253709</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.168433525506</v>
+        <v>1539.168433525507</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.316933319973</v>
+        <v>1331.316933319974</v>
       </c>
       <c r="Y42" t="n">
         <v>1123.55663455502</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232.8042830651803</v>
+        <v>386.8192781947448</v>
       </c>
       <c r="C43" t="n">
-        <v>217.8830952668378</v>
+        <v>217.8830952668379</v>
       </c>
       <c r="D43" t="n">
-        <v>217.8830952668378</v>
+        <v>217.8830952668379</v>
       </c>
       <c r="E43" t="n">
-        <v>217.8830952668378</v>
+        <v>217.8830952668379</v>
       </c>
       <c r="F43" t="n">
-        <v>70.99314776892746</v>
+        <v>70.9931477689275</v>
       </c>
       <c r="G43" t="n">
-        <v>56.59063870938816</v>
+        <v>56.59063870938814</v>
       </c>
       <c r="H43" t="n">
-        <v>56.59063870938816</v>
+        <v>56.59063870938814</v>
       </c>
       <c r="I43" t="n">
-        <v>56.59063870938816</v>
+        <v>56.59063870938814</v>
       </c>
       <c r="J43" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679022</v>
       </c>
       <c r="K43" t="n">
         <v>174.7105769966951</v>
       </c>
       <c r="L43" t="n">
-        <v>387.1332059968797</v>
+        <v>387.1332059968798</v>
       </c>
       <c r="M43" t="n">
-        <v>621.4922075217537</v>
+        <v>621.4922075217539</v>
       </c>
       <c r="N43" t="n">
-        <v>855.7132922303439</v>
+        <v>855.7132922303441</v>
       </c>
       <c r="O43" t="n">
         <v>1056.038078225336</v>
@@ -7588,31 +7588,31 @@
         <v>1203.929857591346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="R43" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="S43" t="n">
-        <v>1172.761784046578</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T43" t="n">
-        <v>1101.95658415479</v>
+        <v>1101.956584154791</v>
       </c>
       <c r="U43" t="n">
-        <v>812.8147354133164</v>
+        <v>966.8297305428811</v>
       </c>
       <c r="V43" t="n">
-        <v>712.1452423369939</v>
+        <v>866.1602374665586</v>
       </c>
       <c r="W43" t="n">
-        <v>422.7280723000333</v>
+        <v>576.7430674295979</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7535165315803</v>
+        <v>502.7685116611449</v>
       </c>
       <c r="Y43" t="n">
-        <v>281.9759325176146</v>
+        <v>435.9909276471791</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1167.633260071249</v>
       </c>
       <c r="D44" t="n">
-        <v>963.3825565940624</v>
+        <v>963.3825565940629</v>
       </c>
       <c r="E44" t="n">
-        <v>731.6092991253827</v>
+        <v>731.6092991253834</v>
       </c>
       <c r="F44" t="n">
-        <v>474.6383894653395</v>
+        <v>474.6383894653402</v>
       </c>
       <c r="G44" t="n">
         <v>211.9877057000865</v>
       </c>
       <c r="H44" t="n">
-        <v>52.10244660679018</v>
+        <v>52.10244660679021</v>
       </c>
       <c r="I44" t="n">
-        <v>52.10244660679018</v>
+        <v>52.10244660679021</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4492234353046</v>
+        <v>108.4492234353048</v>
       </c>
       <c r="K44" t="n">
-        <v>243.6369537521532</v>
+        <v>564.5409121976065</v>
       </c>
       <c r="L44" t="n">
-        <v>861.7356515899216</v>
+        <v>769.1550076304293</v>
       </c>
       <c r="M44" t="n">
-        <v>1506.50342834895</v>
+        <v>1028.49705115896</v>
       </c>
       <c r="N44" t="n">
-        <v>2115.364270934386</v>
+        <v>1296.649328464375</v>
       </c>
       <c r="O44" t="n">
-        <v>2355.237601243086</v>
+        <v>1913.514838223193</v>
       </c>
       <c r="P44" t="n">
-        <v>2525.462938136971</v>
+        <v>2402.320896206846</v>
       </c>
       <c r="Q44" t="n">
-        <v>2605.122330339509</v>
+        <v>2579.135057904778</v>
       </c>
       <c r="R44" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="S44" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="T44" t="n">
-        <v>2546.185219044756</v>
+        <v>2546.185219044758</v>
       </c>
       <c r="U44" t="n">
-        <v>2446.542279148972</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V44" t="n">
-        <v>2269.494386934965</v>
+        <v>2269.494386934966</v>
       </c>
       <c r="W44" t="n">
         <v>2070.740726794416</v>
       </c>
       <c r="X44" t="n">
-        <v>1851.2899636629</v>
+        <v>1851.289963662901</v>
       </c>
       <c r="Y44" t="n">
         <v>1615.165626816653</v>
@@ -7722,28 +7722,28 @@
         <v>90.23150177184505</v>
       </c>
       <c r="I45" t="n">
-        <v>52.10244660679018</v>
+        <v>52.10244660679021</v>
       </c>
       <c r="J45" t="n">
-        <v>191.6744789018</v>
+        <v>66.84435391479535</v>
       </c>
       <c r="K45" t="n">
-        <v>556.8461559150073</v>
+        <v>432.0160309280028</v>
       </c>
       <c r="L45" t="n">
-        <v>786.0077856636512</v>
+        <v>984.4388119430395</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.590323536749</v>
+        <v>1229.566838395239</v>
       </c>
       <c r="N45" t="n">
-        <v>1277.816675105375</v>
+        <v>1485.793189963866</v>
       </c>
       <c r="O45" t="n">
-        <v>1879.91762979498</v>
+        <v>2087.894144653471</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.153660413815</v>
+        <v>2554.130175272306</v>
       </c>
       <c r="Q45" t="n">
         <v>2605.12233033951</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>239.9293306968343</v>
+        <v>388.6022061019166</v>
       </c>
       <c r="C46" t="n">
-        <v>225.0081428984918</v>
+        <v>373.681018303574</v>
       </c>
       <c r="D46" t="n">
-        <v>225.0081428984918</v>
+        <v>223.5643788912383</v>
       </c>
       <c r="E46" t="n">
-        <v>225.0081428984918</v>
+        <v>223.5643788912383</v>
       </c>
       <c r="F46" t="n">
-        <v>225.0081428984918</v>
+        <v>223.5643788912383</v>
       </c>
       <c r="G46" t="n">
-        <v>56.59063870938814</v>
+        <v>209.1618698316989</v>
       </c>
       <c r="H46" t="n">
-        <v>56.59063870938814</v>
+        <v>56.59063870938813</v>
       </c>
       <c r="I46" t="n">
-        <v>56.59063870938814</v>
+        <v>56.59063870938813</v>
       </c>
       <c r="J46" t="n">
-        <v>52.10244660679018</v>
+        <v>52.10244660679021</v>
       </c>
       <c r="K46" t="n">
-        <v>174.710576996695</v>
+        <v>174.7105769966951</v>
       </c>
       <c r="L46" t="n">
-        <v>387.1332059968797</v>
+        <v>387.1332059968798</v>
       </c>
       <c r="M46" t="n">
-        <v>621.4922075217537</v>
+        <v>621.4922075217539</v>
       </c>
       <c r="N46" t="n">
-        <v>855.7132922303439</v>
+        <v>855.7132922303441</v>
       </c>
       <c r="O46" t="n">
         <v>1056.038078225336</v>
@@ -7825,31 +7825,31 @@
         <v>1203.929857591346</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.88737963426</v>
+        <v>1222.887379634261</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.348651926473</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T46" t="n">
-        <v>933.5284569051209</v>
+        <v>1101.956584154791</v>
       </c>
       <c r="U46" t="n">
-        <v>798.4016032932113</v>
+        <v>812.8147354133168</v>
       </c>
       <c r="V46" t="n">
-        <v>697.7321102168888</v>
+        <v>712.1452423369943</v>
       </c>
       <c r="W46" t="n">
-        <v>562.3299353094926</v>
+        <v>576.743067429598</v>
       </c>
       <c r="X46" t="n">
-        <v>488.3553795410397</v>
+        <v>483.0132598165578</v>
       </c>
       <c r="Y46" t="n">
-        <v>267.5628003975096</v>
+        <v>416.235675802592</v>
       </c>
     </row>
   </sheetData>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>173.399011405845</v>
+        <v>104.3953962689312</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>32.74336353760344</v>
+        <v>101.7469786745172</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9847440072274</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>201.9847440072276</v>
       </c>
       <c r="R14" t="n">
         <v>39.46664973688979</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>45.29139933440243</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>129.2776517298429</v>
       </c>
       <c r="N15" t="n">
-        <v>152.758431880424</v>
+        <v>152.7584318804242</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>175.7349738711347</v>
+        <v>32.88812883515371</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>197.2524651763671</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>210.8746537743086</v>
+        <v>71.95879587441789</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>169.2766351732793</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>201.9847440072276</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.458338697855453</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>71.95879587441783</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.6618819380969</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>193.8642166306133</v>
+        <v>192.2435488851078</v>
       </c>
       <c r="N23" t="n">
-        <v>183.3443228478523</v>
+        <v>184.964990593357</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>108.808389673486</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>108.8083896734855</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>333.4750125052734</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>12.58057237422682</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>67.33590385613007</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>18.36282051808004</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>319.7573795936533</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.273662082075</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>39.46664973688985</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>67.33590385613059</v>
+        <v>67.33590385612933</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>210.2736620820754</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>181.6771875463006</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>67.33590385612933</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>67.33590385613059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5914028093289403</v>
+        <v>4.008904254910135</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>389.3189224550479</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>380.419696417792</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>39.46664973688985</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>67.3359038561311</v>
+        <v>413.3184231171019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>285.6265984819523</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.008904254910192</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>123.7744763702883</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>67.33590385612968</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.4660860509113</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>45.71016310867759</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>30.25867439100341</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>197.0085851633949</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>39.46664973688985</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>9.64190765565921</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>67.33590385612956</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>389.3189224550479</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>344.1500659394158</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>98.13613080342896</v>
       </c>
       <c r="R44" t="n">
-        <v>39.46664973688985</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>44.31392988286063</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>9.641907655658372</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8875013875138</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.4265514950408</v>
+        <v>233.4265514950407</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.8367013447161</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.28406442165242</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>13.91501029261719</v>
       </c>
       <c r="U11" t="n">
-        <v>119.2750153991285</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>195.9059181941681</v>
       </c>
       <c r="W11" t="n">
-        <v>80.76104973620542</v>
+        <v>217.3946284414462</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.8847604025022</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.3915983800868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.8875013875138</v>
+        <v>250.8875013875137</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>20.82272082328646</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.8367013447161</v>
       </c>
       <c r="E14" t="n">
-        <v>250.084029796295</v>
+        <v>250.0840297962949</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>260.4430446983406</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>178.9149114046652</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>13.28406442165239</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.3915983800868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>171.1077847121879</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>116.9296731100611</v>
+        <v>0.6290572291722355</v>
       </c>
       <c r="W17" t="n">
-        <v>54.80716883129939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>171.7368419413596</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.7368419413596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26317,7 +26317,7 @@
         <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266264.8100830375</v>
+        <v>266264.8100830374</v>
       </c>
       <c r="E2" t="n">
         <v>230370.2224185946</v>
@@ -26326,34 +26326,34 @@
         <v>235491.5833740449</v>
       </c>
       <c r="G2" t="n">
-        <v>262395.7431048691</v>
+        <v>262395.743104869</v>
       </c>
       <c r="H2" t="n">
         <v>262395.743104869</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.575205892</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058918</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058919</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>773445.4973893163</v>
       </c>
       <c r="F3" t="n">
-        <v>14616.10764127568</v>
+        <v>14616.10764127572</v>
       </c>
       <c r="G3" t="n">
-        <v>63180.99606728565</v>
+        <v>63180.9960672856</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11767.78827713063</v>
+        <v>11767.78827713057</v>
       </c>
       <c r="J3" t="n">
         <v>121596.6346431578</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63180.99606728566</v>
+        <v>63180.99606728556</v>
       </c>
       <c r="M3" t="n">
-        <v>81545.07701844763</v>
+        <v>81545.07701844766</v>
       </c>
       <c r="N3" t="n">
-        <v>12494.08219936316</v>
+        <v>12494.08219936317</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>160268.6413469156</v>
+        <v>160268.6413469157</v>
       </c>
       <c r="F4" t="n">
         <v>167219.7577437323</v>
@@ -26445,19 +26445,19 @@
         <v>205827.8082342246</v>
       </c>
       <c r="L4" t="n">
-        <v>205827.8082342247</v>
+        <v>205827.8082342246</v>
       </c>
       <c r="M4" t="n">
         <v>212671.0574004735</v>
       </c>
       <c r="N4" t="n">
-        <v>212671.0574004736</v>
+        <v>212671.0574004735</v>
       </c>
       <c r="O4" t="n">
-        <v>212671.0574004736</v>
+        <v>212671.0574004735</v>
       </c>
       <c r="P4" t="n">
-        <v>212671.0574004736</v>
+        <v>212671.0574004735</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>48210.1754089278</v>
       </c>
       <c r="F5" t="n">
-        <v>51311.67176384694</v>
+        <v>51311.67176384695</v>
       </c>
       <c r="G5" t="n">
         <v>57951.12571182274</v>
@@ -26488,16 +26488,16 @@
         <v>57951.12571182274</v>
       </c>
       <c r="I5" t="n">
-        <v>60641.70497126272</v>
+        <v>60641.70497126271</v>
       </c>
       <c r="J5" t="n">
         <v>77813.75395004352</v>
       </c>
       <c r="K5" t="n">
-        <v>77813.75395004351</v>
+        <v>77813.75395004352</v>
       </c>
       <c r="L5" t="n">
-        <v>77813.75395004351</v>
+        <v>77813.75395004352</v>
       </c>
       <c r="M5" t="n">
         <v>67620.11491604417</v>
@@ -26506,10 +26506,10 @@
         <v>67620.11491604417</v>
       </c>
       <c r="O5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.1149160442</v>
       </c>
       <c r="P5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.11491604419</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214387.4101893553</v>
+        <v>-214391.8237672235</v>
       </c>
       <c r="C6" t="n">
-        <v>-214387.4101893553</v>
+        <v>-214391.8237672235</v>
       </c>
       <c r="D6" t="n">
-        <v>-214387.4101893554</v>
+        <v>-214391.8237672236</v>
       </c>
       <c r="E6" t="n">
-        <v>-751554.0917265653</v>
+        <v>-751834.6175172367</v>
       </c>
       <c r="F6" t="n">
-        <v>2344.046225189959</v>
+        <v>2102.915518791127</v>
       </c>
       <c r="G6" t="n">
-        <v>-73205.39355699241</v>
+        <v>-73239.56918853879</v>
       </c>
       <c r="H6" t="n">
-        <v>-10024.39748970678</v>
+        <v>-10058.57312125317</v>
       </c>
       <c r="I6" t="n">
-        <v>-26070.09626159508</v>
+        <v>-26070.09626159522</v>
       </c>
       <c r="J6" t="n">
-        <v>-138399.6216215341</v>
+        <v>-138399.621621534</v>
       </c>
       <c r="K6" t="n">
-        <v>-16802.98697837607</v>
+        <v>-16802.98697837634</v>
       </c>
       <c r="L6" t="n">
-        <v>-79983.98304566198</v>
+        <v>-79983.98304566173</v>
       </c>
       <c r="M6" t="n">
-        <v>-94997.67412907307</v>
+        <v>-94997.6741290731</v>
       </c>
       <c r="N6" t="n">
-        <v>-25946.67930998857</v>
+        <v>-25946.6793099886</v>
       </c>
       <c r="O6" t="n">
-        <v>-13452.59711062559</v>
+        <v>-13452.59711062562</v>
       </c>
       <c r="P6" t="n">
-        <v>-13452.59711062547</v>
+        <v>-13452.59711062549</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>210.8225853600738</v>
       </c>
       <c r="J2" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="K2" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="M2" t="n">
         <v>152.4748451782687</v>
@@ -26762,22 +26762,22 @@
         <v>697.4242080546677</v>
       </c>
       <c r="K3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
       <c r="L3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
       <c r="M3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
       <c r="N3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
       <c r="O3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
       <c r="P3" t="n">
-        <v>697.4242080546676</v>
+        <v>697.4242080546678</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>411.5729284143903</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8258767604428</v>
+        <v>455.8258767604426</v>
       </c>
       <c r="J4" t="n">
         <v>920.5666491196705</v>
       </c>
       <c r="K4" t="n">
-        <v>920.5666491196705</v>
+        <v>920.5666491196707</v>
       </c>
       <c r="L4" t="n">
-        <v>920.5666491196705</v>
+        <v>920.5666491196707</v>
       </c>
       <c r="M4" t="n">
-        <v>651.2805825848773</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="N4" t="n">
-        <v>651.2805825848773</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="O4" t="n">
-        <v>651.2805825848775</v>
+        <v>651.2805825848777</v>
       </c>
       <c r="P4" t="n">
-        <v>651.2805825848773</v>
+        <v>651.2805825848776</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>78.97624508410706</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97624508410708</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="M2" t="n">
-        <v>73.49860009416169</v>
+        <v>73.49860009416173</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>360.5614752084834</v>
       </c>
       <c r="F4" t="n">
-        <v>51.01145320590689</v>
+        <v>51.01145320590695</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.25294834605251</v>
+        <v>44.25294834605228</v>
       </c>
       <c r="J4" t="n">
-        <v>464.7407723592277</v>
+        <v>464.7407723592279</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>91.27540867369015</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590689</v>
+        <v>51.01145320590695</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97624508410706</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>360.5614752084834</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590689</v>
+        <v>51.01145320590695</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="C12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>131.8463402759668</v>
       </c>
       <c r="H12" t="n">
-        <v>28.68542007613149</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I12" t="n">
         <v>37.74776461340429</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.018805009040477</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>131.8463402759668</v>
@@ -28223,16 +28223,16 @@
         <v>131.8463402759668</v>
       </c>
       <c r="U12" t="n">
+        <v>69.80312212592898</v>
+      </c>
+      <c r="V12" t="n">
         <v>131.8463402759668</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>131.8463402759668</v>
@@ -28263,7 +28263,7 @@
         <v>131.8463402759668</v>
       </c>
       <c r="H13" t="n">
-        <v>131.8463402759668</v>
+        <v>57.97152445460347</v>
       </c>
       <c r="I13" t="n">
         <v>117.6295031199658</v>
@@ -28308,10 +28308,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="X13" t="n">
-        <v>57.97152445460375</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>131.8463402759668</v>
@@ -28403,17 +28403,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>131.8463402759668</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.333082373059636</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>131.8463402759668</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="W15" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.8463402759668</v>
+        <v>101.4316580356216</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28500,10 +28500,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="I16" t="n">
-        <v>43.75468729860266</v>
+        <v>117.6295031199658</v>
       </c>
       <c r="J16" t="n">
         <v>4.443310181571945</v>
@@ -28548,10 +28548,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="X16" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.8463402759668</v>
+        <v>57.97152445460293</v>
       </c>
     </row>
     <row r="17">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>65.9087527900127</v>
+        <v>135.843397168527</v>
       </c>
       <c r="H18" t="n">
         <v>97.74744323520987</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>143.8191001499556</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1181924004609</v>
+        <v>86.43578340854205</v>
       </c>
       <c r="U18" t="n">
         <v>210.8225853600738</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28731,7 +28731,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.7333291472126</v>
@@ -28740,7 +28740,7 @@
         <v>151.0455188110877</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.6295031199658</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0991848100739</v>
       </c>
       <c r="T19" t="n">
-        <v>79.74785932984904</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="V19" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>210.8225853600738</v>
       </c>
       <c r="X19" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.8225853600738</v>
+        <v>5.252688918889191</v>
       </c>
     </row>
     <row r="20">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.843397168527</v>
+        <v>28.16098817660819</v>
       </c>
       <c r="H21" t="n">
         <v>97.74744323520987</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,13 +28934,13 @@
         <v>194.1181924004609</v>
       </c>
       <c r="U21" t="n">
-        <v>140.8879409815594</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>210.8225853600738</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7333291472126</v>
       </c>
       <c r="H22" t="n">
         <v>151.0455188110877</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.6295031199658</v>
       </c>
       <c r="J22" t="n">
-        <v>4.443310181571945</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.7448646060484</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0991848100739</v>
+        <v>163.7761094675173</v>
       </c>
       <c r="T22" t="n">
         <v>210.8225853600738</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="V22" t="n">
         <v>210.8225853600738</v>
       </c>
       <c r="W22" t="n">
-        <v>67.80930189757973</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29126,10 +29126,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.843397168527</v>
+        <v>74.26553660436289</v>
       </c>
       <c r="H24" t="n">
         <v>97.74744323520987</v>
@@ -29171,7 +29171,7 @@
         <v>194.1181924004609</v>
       </c>
       <c r="U24" t="n">
-        <v>4.175512402525072</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,19 +29193,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -29244,13 +29244,13 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S25" t="n">
-        <v>157.735208392898</v>
+        <v>202.0991848100739</v>
       </c>
       <c r="T25" t="n">
         <v>210.8225853600738</v>
       </c>
       <c r="U25" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>210.8225853600738</v>
@@ -29259,10 +29259,10 @@
         <v>210.8225853600738</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>132.2735787694801</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410703</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="C29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="D29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="E29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="F29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="G29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="H29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="I29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="T29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="U29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="V29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="W29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="X29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="C31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="D31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="E31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="F31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="H31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="I31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="J31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="L31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="M31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="N31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="O31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="R31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="S31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="U31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="V31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="W31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="X31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410701</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="C32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="D32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="E32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="F32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="G32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="H32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="I32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="T32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="U32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="V32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="W32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="X32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="C34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="D34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="E34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="F34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="G34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="H34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="I34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="J34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="K34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410854</v>
       </c>
       <c r="L34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="M34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="N34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="O34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="P34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.97624508410645</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="R34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="S34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="T34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="U34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="V34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="W34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="X34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.97624508410705</v>
+        <v>78.97624508410695</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3856512547172</v>
+        <v>102.3856512547171</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30150,13 +30150,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.8622795060371</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="H37" t="n">
         <v>151.0455188110877</v>
@@ -30165,7 +30165,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J37" t="n">
-        <v>4.443310181571974</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,10 +30195,10 @@
         <v>152.4748451782687</v>
       </c>
       <c r="T37" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>152.4748451782687</v>
+        <v>129.9031620377364</v>
       </c>
       <c r="V37" t="n">
         <v>152.4748451782687</v>
@@ -30207,10 +30207,10 @@
         <v>152.4748451782687</v>
       </c>
       <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>152.4748451782687</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3856512547172</v>
+        <v>102.3856512547171</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>152.4748451782687</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30402,7 +30402,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J40" t="n">
-        <v>4.443310181571974</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.17318146551636</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S40" t="n">
         <v>152.4748451782687</v>
@@ -30435,19 +30435,19 @@
         <v>152.4748451782687</v>
       </c>
       <c r="U40" t="n">
+        <v>133.7625341977928</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>152.4748451782687</v>
       </c>
-      <c r="V40" t="n">
+      <c r="X40" t="n">
         <v>152.4748451782687</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
       <c r="Y40" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3856512547172</v>
+        <v>102.3856512547171</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.1520472240273</v>
+        <v>131.1520472240274</v>
       </c>
       <c r="C43" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30672,7 +30672,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="V43" t="n">
         <v>152.4748451782687</v>
@@ -30715,7 +30715,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3856512547172</v>
+        <v>102.3856512547171</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>152.4748451782687</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30867,10 +30867,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="H46" t="n">
-        <v>151.0455188110877</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>117.6295031199658</v>
@@ -30903,13 +30903,13 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S46" t="n">
-        <v>138.2058443793647</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>152.4748451782687</v>
@@ -30918,10 +30918,10 @@
         <v>152.4748451782687</v>
       </c>
       <c r="X46" t="n">
+        <v>132.9171458521273</v>
+      </c>
+      <c r="Y46" t="n">
         <v>152.4748451782687</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H29" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I29" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J29" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K29" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L29" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M29" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N29" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O29" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P29" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R29" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S29" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T29" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I30" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J30" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K30" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L30" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M30" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O30" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P30" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q30" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R30" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S30" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T30" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,19 +33336,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I31" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J31" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K31" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L31" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M31" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N31" t="n">
         <v>192.4547818718726</v>
@@ -33363,16 +33363,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R31" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S31" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T31" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H32" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I32" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J32" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K32" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L32" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M32" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N32" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O32" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P32" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R32" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S32" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T32" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I33" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J33" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K33" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L33" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M33" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O33" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P33" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R33" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S33" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T33" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,19 +33573,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I34" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J34" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K34" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L34" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M34" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N34" t="n">
         <v>192.4547818718726</v>
@@ -33600,16 +33600,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R34" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S34" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T34" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H35" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I35" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J35" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K35" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L35" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M35" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N35" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O35" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P35" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q35" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R35" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S35" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T35" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I36" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J36" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K36" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L36" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M36" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O36" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P36" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R36" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S36" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T36" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,19 +33810,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I37" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J37" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K37" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L37" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M37" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N37" t="n">
         <v>192.4547818718726</v>
@@ -33837,16 +33837,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R37" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S37" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T37" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H38" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I38" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J38" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K38" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L38" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M38" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N38" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O38" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P38" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q38" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R38" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S38" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T38" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I39" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J39" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K39" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L39" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M39" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O39" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P39" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R39" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S39" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T39" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,19 +34047,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I40" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J40" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K40" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L40" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M40" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N40" t="n">
         <v>192.4547818718726</v>
@@ -34074,16 +34074,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R40" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S40" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T40" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H41" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I41" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J41" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K41" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L41" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M41" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N41" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O41" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P41" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q41" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R41" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S41" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T41" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I42" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J42" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K42" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L42" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M42" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O42" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P42" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R42" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S42" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T42" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,19 +34284,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I43" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J43" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K43" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L43" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M43" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N43" t="n">
         <v>192.4547818718726</v>
@@ -34311,16 +34311,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R43" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S43" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T43" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.803715409264993</v>
+        <v>2.803715409264994</v>
       </c>
       <c r="H44" t="n">
-        <v>28.71355043513512</v>
+        <v>28.71355043513513</v>
       </c>
       <c r="I44" t="n">
         <v>108.0902383156888</v>
       </c>
       <c r="J44" t="n">
-        <v>237.9618407171049</v>
+        <v>237.961840717105</v>
       </c>
       <c r="K44" t="n">
-        <v>356.6431139912922</v>
+        <v>356.6431139912923</v>
       </c>
       <c r="L44" t="n">
-        <v>442.4473194475858</v>
+        <v>442.4473194475859</v>
       </c>
       <c r="M44" t="n">
-        <v>492.3078933571021</v>
+        <v>492.3078933571023</v>
       </c>
       <c r="N44" t="n">
-        <v>500.2739497636763</v>
+        <v>500.2739497636765</v>
       </c>
       <c r="O44" t="n">
-        <v>472.3945046627975</v>
+        <v>472.3945046627977</v>
       </c>
       <c r="P44" t="n">
-        <v>403.1777804965679</v>
+        <v>403.1777804965681</v>
       </c>
       <c r="Q44" t="n">
-        <v>302.7697224022652</v>
+        <v>302.7697224022654</v>
       </c>
       <c r="R44" t="n">
         <v>176.1188880772423</v>
       </c>
       <c r="S44" t="n">
-        <v>63.88966488862609</v>
+        <v>63.88966488862611</v>
       </c>
       <c r="T44" t="n">
-        <v>12.27326420405751</v>
+        <v>12.27326420405752</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2242972327411994</v>
+        <v>0.2242972327411995</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>14.48800100128659</v>
       </c>
       <c r="I45" t="n">
-        <v>51.64886823801077</v>
+        <v>51.64886823801078</v>
       </c>
       <c r="J45" t="n">
         <v>141.7284421292981</v>
       </c>
       <c r="K45" t="n">
-        <v>242.2364817731009</v>
+        <v>242.236481773101</v>
       </c>
       <c r="L45" t="n">
-        <v>325.7168435825125</v>
+        <v>325.7168435825126</v>
       </c>
       <c r="M45" t="n">
-        <v>380.0961933897938</v>
+        <v>380.0961933897939</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1562086172994</v>
+        <v>390.1562086172995</v>
       </c>
       <c r="O45" t="n">
-        <v>356.9167076824675</v>
+        <v>356.9167076824676</v>
       </c>
       <c r="P45" t="n">
-        <v>286.4571242479634</v>
+        <v>286.4571242479635</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.4890014266325</v>
+        <v>191.4890014266326</v>
       </c>
       <c r="R45" t="n">
-        <v>93.13902914360263</v>
+        <v>93.13902914360266</v>
       </c>
       <c r="S45" t="n">
-        <v>27.86407095388222</v>
+        <v>27.86407095388223</v>
       </c>
       <c r="T45" t="n">
-        <v>6.046536294360748</v>
+        <v>6.04653629436075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0986921049133964</v>
+        <v>0.09869210491339643</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,19 +34521,19 @@
         <v>11.18165369635189</v>
       </c>
       <c r="I46" t="n">
-        <v>37.82097180729247</v>
+        <v>37.82097180729249</v>
       </c>
       <c r="J46" t="n">
-        <v>88.9158699351008</v>
+        <v>88.91586993510083</v>
       </c>
       <c r="K46" t="n">
-        <v>146.1160881793221</v>
+        <v>146.1160881793222</v>
       </c>
       <c r="L46" t="n">
-        <v>186.9782868610825</v>
+        <v>186.9782868610826</v>
       </c>
       <c r="M46" t="n">
-        <v>197.1423872046988</v>
+        <v>197.1423872046989</v>
       </c>
       <c r="N46" t="n">
         <v>192.4547818718726</v>
@@ -34548,16 +34548,16 @@
         <v>105.3110554162548</v>
       </c>
       <c r="R46" t="n">
-        <v>56.54852677112106</v>
+        <v>56.54852677112108</v>
       </c>
       <c r="S46" t="n">
         <v>21.91741322689832</v>
       </c>
       <c r="T46" t="n">
-        <v>5.373596357142519</v>
+        <v>5.373596357142521</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06859910243160672</v>
+        <v>0.06859910243160675</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>104.395042798742</v>
       </c>
       <c r="L12" t="n">
-        <v>360.5614752084834</v>
+        <v>291.5578600715696</v>
       </c>
       <c r="M12" t="n">
         <v>237.9621594677756</v>
       </c>
       <c r="N12" t="n">
-        <v>291.5578600715697</v>
+        <v>360.5614752084834</v>
       </c>
       <c r="O12" t="n">
         <v>214.3204632380231</v>
@@ -35647,7 +35647,7 @@
         <v>56.91593619041873</v>
       </c>
       <c r="K14" t="n">
-        <v>338.5380069535392</v>
+        <v>136.5532629463117</v>
       </c>
       <c r="L14" t="n">
         <v>206.6809044775987</v>
@@ -35665,7 +35665,7 @@
         <v>171.9447847412985</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.46403252781587</v>
+        <v>282.4487765350435</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.89081546263145</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K15" t="n">
-        <v>149.6864421331445</v>
+        <v>104.395042798742</v>
       </c>
       <c r="L15" t="n">
         <v>187.1624638026384</v>
       </c>
       <c r="M15" t="n">
-        <v>237.9621594677756</v>
+        <v>367.2398111976185</v>
       </c>
       <c r="N15" t="n">
         <v>411.5729284143903</v>
@@ -35744,7 +35744,7 @@
         <v>152.4827168336333</v>
       </c>
       <c r="Q15" t="n">
-        <v>261.5845150764602</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>56.91593619041873</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K17" t="n">
         <v>136.5532629463117</v>
@@ -35899,13 +35899,13 @@
         <v>242.2962932411109</v>
       </c>
       <c r="P17" t="n">
-        <v>347.6797586124333</v>
+        <v>204.8329135764522</v>
       </c>
       <c r="Q17" t="n">
         <v>80.46403252781587</v>
       </c>
       <c r="R17" t="n">
-        <v>26.24977013609265</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.89081546263145</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K18" t="n">
         <v>104.395042798742</v>
@@ -35975,13 +35975,13 @@
         <v>258.8144965339662</v>
       </c>
       <c r="O18" t="n">
-        <v>411.5729284143903</v>
+        <v>214.3204632380231</v>
       </c>
       <c r="P18" t="n">
-        <v>363.3573706079418</v>
+        <v>224.4415127080512</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.50722734061108</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,16 +36133,16 @@
         <v>270.8608861670855</v>
       </c>
       <c r="O20" t="n">
-        <v>411.5729284143903</v>
+        <v>242.2962932411109</v>
       </c>
       <c r="P20" t="n">
-        <v>171.9447847412985</v>
+        <v>373.9295287485261</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.92237122567133</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R20" t="n">
-        <v>26.24977013609265</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.89081546263145</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K21" t="n">
-        <v>368.8602798113207</v>
+        <v>104.395042798742</v>
       </c>
       <c r="L21" t="n">
         <v>187.1624638026384</v>
@@ -36212,13 +36212,13 @@
         <v>258.8144965339662</v>
       </c>
       <c r="O21" t="n">
-        <v>214.3204632380231</v>
+        <v>286.279259112441</v>
       </c>
       <c r="P21" t="n">
         <v>152.4827168336333</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.169109278708</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>206.6809044775987</v>
       </c>
       <c r="M23" t="n">
-        <v>455.8258767604428</v>
+        <v>454.2052090149373</v>
       </c>
       <c r="N23" t="n">
-        <v>454.2052090149379</v>
+        <v>455.8258767604426</v>
       </c>
       <c r="O23" t="n">
         <v>242.2962932411109</v>
@@ -36440,7 +36440,7 @@
         <v>368.8602798113207</v>
       </c>
       <c r="L24" t="n">
-        <v>295.9708534761244</v>
+        <v>187.1624638026384</v>
       </c>
       <c r="M24" t="n">
         <v>237.9621594677756</v>
@@ -36452,7 +36452,7 @@
         <v>214.3204632380231</v>
       </c>
       <c r="P24" t="n">
-        <v>152.4827168336333</v>
+        <v>261.2911065071188</v>
       </c>
       <c r="Q24" t="n">
         <v>261.5845150764602</v>
@@ -36598,22 +36598,22 @@
         <v>460.6986755174764</v>
       </c>
       <c r="L26" t="n">
-        <v>624.3421190280491</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M26" t="n">
         <v>711.4751936226619</v>
       </c>
       <c r="N26" t="n">
-        <v>708.2078105790697</v>
+        <v>604.3358986723589</v>
       </c>
       <c r="O26" t="n">
         <v>623.0964745038561</v>
       </c>
       <c r="P26" t="n">
-        <v>184.5253571155253</v>
+        <v>493.7434929127811</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.46403252781582</v>
+        <v>292.7790231877205</v>
       </c>
       <c r="R26" t="n">
         <v>26.24977013609262</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>140.9818508030403</v>
+        <v>14.89081546263142</v>
       </c>
       <c r="K27" t="n">
-        <v>368.8602798113205</v>
+        <v>104.395042798742</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0028091060975</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M27" t="n">
-        <v>305.2980633239056</v>
+        <v>703.6672232177755</v>
       </c>
       <c r="N27" t="n">
-        <v>258.8144965339661</v>
+        <v>738.1568708775196</v>
       </c>
       <c r="O27" t="n">
-        <v>214.3204632380231</v>
+        <v>608.1827825147526</v>
       </c>
       <c r="P27" t="n">
-        <v>470.9454854735704</v>
+        <v>152.4827168336332</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.5845150764601</v>
+        <v>69.87004785869109</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.53293490253509</v>
+        <v>74.53293490253508</v>
       </c>
       <c r="K28" t="n">
         <v>202.8228414375463</v>
@@ -36762,7 +36762,7 @@
         <v>315.7025092506465</v>
       </c>
       <c r="N28" t="n">
-        <v>315.5631993352083</v>
+        <v>315.5631993352082</v>
       </c>
       <c r="O28" t="n">
         <v>281.3245137659168</v>
@@ -36771,7 +36771,7 @@
         <v>228.3618808073496</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.12525724866748</v>
+        <v>98.12525724866747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.91593619041865</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K29" t="n">
-        <v>136.5532629463116</v>
+        <v>456.310642539965</v>
       </c>
       <c r="L29" t="n">
-        <v>624.342119028049</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M29" t="n">
-        <v>711.4751936226619</v>
+        <v>711.475193622662</v>
       </c>
       <c r="N29" t="n">
-        <v>708.2078105790695</v>
+        <v>708.2078105790697</v>
       </c>
       <c r="O29" t="n">
-        <v>623.0964745038561</v>
+        <v>623.0964745038563</v>
       </c>
       <c r="P29" t="n">
-        <v>493.743492912781</v>
+        <v>171.9447847412985</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.7376946098908</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140.9818508030402</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K30" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0028091060974</v>
+        <v>558.0028091060976</v>
       </c>
       <c r="M30" t="n">
-        <v>237.9621594677755</v>
+        <v>237.9621594677756</v>
       </c>
       <c r="N30" t="n">
-        <v>258.8144965339661</v>
+        <v>258.8144965339662</v>
       </c>
       <c r="O30" t="n">
-        <v>281.6563670941536</v>
+        <v>281.6563670941525</v>
       </c>
       <c r="P30" t="n">
-        <v>470.9454854735703</v>
+        <v>470.9454854735704</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.5845150764601</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>56.91593619041865</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K32" t="n">
-        <v>460.6986755174764</v>
+        <v>346.8269250283872</v>
       </c>
       <c r="L32" t="n">
-        <v>624.342119028049</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M32" t="n">
-        <v>711.4751936226619</v>
+        <v>711.475193622662</v>
       </c>
       <c r="N32" t="n">
-        <v>708.2078105790695</v>
+        <v>708.2078105790697</v>
       </c>
       <c r="O32" t="n">
-        <v>623.0964745038561</v>
+        <v>623.0964745038563</v>
       </c>
       <c r="P32" t="n">
-        <v>353.621972287599</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.46403252781576</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R32" t="n">
-        <v>26.24977013609259</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.9818508030402</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K33" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0028091060974</v>
+        <v>558.0028091060976</v>
       </c>
       <c r="M33" t="n">
-        <v>237.9621594677755</v>
+        <v>305.2980633239049</v>
       </c>
       <c r="N33" t="n">
-        <v>258.8144965339661</v>
+        <v>258.8144965339662</v>
       </c>
       <c r="O33" t="n">
-        <v>281.6563670941536</v>
+        <v>214.3204632380231</v>
       </c>
       <c r="P33" t="n">
-        <v>470.9454854735703</v>
+        <v>470.9454854735704</v>
       </c>
       <c r="Q33" t="n">
-        <v>261.5845150764601</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.53293490253508</v>
+        <v>74.532934902535</v>
       </c>
       <c r="K34" t="n">
-        <v>202.8228414375463</v>
+        <v>202.8228414375479</v>
       </c>
       <c r="L34" t="n">
         <v>293.5445572055057</v>
@@ -37245,7 +37245,7 @@
         <v>228.3618808073496</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.12525724866687</v>
+        <v>98.1252572486674</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.91593619041865</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K35" t="n">
-        <v>137.1446657556406</v>
+        <v>140.5621672012219</v>
       </c>
       <c r="L35" t="n">
-        <v>206.6809044775986</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M35" t="n">
-        <v>651.2805825848773</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N35" t="n">
-        <v>651.2805825848773</v>
+        <v>270.8608861670855</v>
       </c>
       <c r="O35" t="n">
-        <v>623.0964745038561</v>
+        <v>242.2962932411109</v>
       </c>
       <c r="P35" t="n">
-        <v>171.9447847412983</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.46403252781576</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.24977013609265</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>140.9818508030402</v>
+        <v>14.89081546263145</v>
       </c>
       <c r="K36" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0028091060974</v>
+        <v>187.1624638026384</v>
       </c>
       <c r="M36" t="n">
-        <v>305.2980633239065</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="N36" t="n">
-        <v>258.8144965339661</v>
+        <v>544.4410950159186</v>
       </c>
       <c r="O36" t="n">
-        <v>214.320463238023</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P36" t="n">
-        <v>470.9454854735703</v>
+        <v>152.4827168336333</v>
       </c>
       <c r="Q36" t="n">
-        <v>261.5845150764601</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>214.5683121213987</v>
       </c>
       <c r="M37" t="n">
-        <v>236.7262641665394</v>
+        <v>236.7262641665395</v>
       </c>
       <c r="N37" t="n">
         <v>236.5869542511012</v>
       </c>
       <c r="O37" t="n">
-        <v>202.3482686818097</v>
+        <v>202.3482686818098</v>
       </c>
       <c r="P37" t="n">
         <v>149.3856357232426</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.14901216456042</v>
+        <v>19.14901216456045</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>226.0125513624924</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K38" t="n">
-        <v>136.5532629463116</v>
+        <v>460.6986755174765</v>
       </c>
       <c r="L38" t="n">
-        <v>624.342119028049</v>
+        <v>206.6809044775987</v>
       </c>
       <c r="M38" t="n">
-        <v>265.9705643847396</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N38" t="n">
-        <v>270.8608861670854</v>
+        <v>270.8608861670855</v>
       </c>
       <c r="O38" t="n">
-        <v>242.2962932411108</v>
+        <v>366.0707696113993</v>
       </c>
       <c r="P38" t="n">
-        <v>493.743492912781</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q38" t="n">
-        <v>292.7790231877204</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R38" t="n">
-        <v>26.24977013609259</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>140.9818508030402</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K39" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0028091060974</v>
+        <v>187.1624638026384</v>
       </c>
       <c r="M39" t="n">
-        <v>305.2980633239051</v>
+        <v>237.9621594677756</v>
       </c>
       <c r="N39" t="n">
-        <v>258.8144965339661</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="O39" t="n">
-        <v>214.320463238023</v>
+        <v>260.0306263467007</v>
       </c>
       <c r="P39" t="n">
-        <v>470.9454854735703</v>
+        <v>470.9454854735704</v>
       </c>
       <c r="Q39" t="n">
-        <v>261.5845150764601</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>214.5683121213987</v>
       </c>
       <c r="M40" t="n">
-        <v>236.7262641665394</v>
+        <v>236.7262641665395</v>
       </c>
       <c r="N40" t="n">
         <v>236.5869542511012</v>
       </c>
       <c r="O40" t="n">
-        <v>202.3482686818097</v>
+        <v>202.3482686818098</v>
       </c>
       <c r="P40" t="n">
         <v>149.3856357232426</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.14901216456042</v>
+        <v>19.14901216456045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>56.91593619041865</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K41" t="n">
-        <v>460.6986755174764</v>
+        <v>166.8119373373152</v>
       </c>
       <c r="L41" t="n">
-        <v>624.342119028049</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M41" t="n">
-        <v>261.9616601298294</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N41" t="n">
-        <v>270.8608861670854</v>
+        <v>270.8608861670855</v>
       </c>
       <c r="O41" t="n">
-        <v>439.3048784045056</v>
+        <v>242.2962932411109</v>
       </c>
       <c r="P41" t="n">
-        <v>171.9447847412983</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q41" t="n">
-        <v>292.7790231877204</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.5327231182906</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K42" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0028091060974</v>
+        <v>558.0028091060976</v>
       </c>
       <c r="M42" t="n">
-        <v>237.9621594677755</v>
+        <v>237.9621594677756</v>
       </c>
       <c r="N42" t="n">
-        <v>258.8144965339661</v>
+        <v>258.8144965339662</v>
       </c>
       <c r="O42" t="n">
-        <v>608.1827825147525</v>
+        <v>281.6563670941527</v>
       </c>
       <c r="P42" t="n">
-        <v>470.9454854735703</v>
+        <v>470.9454854735704</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.50722734061102</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>214.5683121213987</v>
       </c>
       <c r="M43" t="n">
-        <v>236.7262641665394</v>
+        <v>236.7262641665395</v>
       </c>
       <c r="N43" t="n">
         <v>236.5869542511012</v>
       </c>
       <c r="O43" t="n">
-        <v>202.3482686818097</v>
+        <v>202.3482686818098</v>
       </c>
       <c r="P43" t="n">
         <v>149.3856357232426</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.14901216456042</v>
+        <v>19.14901216456045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.91593619041865</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K44" t="n">
-        <v>136.5532629463116</v>
+        <v>460.6986755174765</v>
       </c>
       <c r="L44" t="n">
-        <v>624.342119028049</v>
+        <v>206.6809044775987</v>
       </c>
       <c r="M44" t="n">
-        <v>651.2805825848773</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N44" t="n">
-        <v>615.0109521065011</v>
+        <v>270.8608861670855</v>
       </c>
       <c r="O44" t="n">
-        <v>242.2962932411108</v>
+        <v>623.0964745038563</v>
       </c>
       <c r="P44" t="n">
-        <v>171.9447847412983</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.46403252781576</v>
+        <v>178.6001633312448</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.24977013609265</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>140.9818508030402</v>
+        <v>14.89081546263145</v>
       </c>
       <c r="K45" t="n">
-        <v>368.8602798113205</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L45" t="n">
-        <v>231.4763936854989</v>
+        <v>558.0028091060976</v>
       </c>
       <c r="M45" t="n">
-        <v>237.9621594677755</v>
+        <v>247.6040671234339</v>
       </c>
       <c r="N45" t="n">
-        <v>258.8144965339661</v>
+        <v>258.8144965339662</v>
       </c>
       <c r="O45" t="n">
-        <v>608.1827825147525</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P45" t="n">
-        <v>470.9454854735703</v>
+        <v>470.9454854735704</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.5845150764601</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>214.5683121213987</v>
       </c>
       <c r="M46" t="n">
-        <v>236.7262641665394</v>
+        <v>236.7262641665395</v>
       </c>
       <c r="N46" t="n">
         <v>236.5869542511012</v>
       </c>
       <c r="O46" t="n">
-        <v>202.3482686818097</v>
+        <v>202.3482686818098</v>
       </c>
       <c r="P46" t="n">
         <v>149.3856357232426</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.14901216456042</v>
+        <v>19.14901216456045</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
